--- a/ysrs2 ssa/matrixes/new_X_matrix.xlsx
+++ b/ysrs2 ssa/matrixes/new_X_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,109 +533,121 @@
       <c r="AH1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>333.8019622790322</v>
+        <v>308.9373089532946</v>
       </c>
       <c r="C2" t="n">
-        <v>342.1898405762364</v>
+        <v>307.990104137063</v>
       </c>
       <c r="D2" t="n">
-        <v>349.3488582855926</v>
+        <v>329.3654808426085</v>
       </c>
       <c r="E2" t="n">
-        <v>359.2248782291381</v>
+        <v>340.0414401920561</v>
       </c>
       <c r="F2" t="n">
-        <v>357.9426414328397</v>
+        <v>347.5832685646877</v>
       </c>
       <c r="G2" t="n">
-        <v>350.5028707834995</v>
+        <v>358.4974535846313</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4385905088287</v>
+        <v>354.4012566058461</v>
       </c>
       <c r="I2" t="n">
-        <v>327.9304477410877</v>
+        <v>343.9982559035159</v>
       </c>
       <c r="J2" t="n">
-        <v>335.9692249368235</v>
+        <v>337.0029511855749</v>
       </c>
       <c r="K2" t="n">
-        <v>344.9666779746106</v>
+        <v>325.9454458283287</v>
       </c>
       <c r="L2" t="n">
-        <v>355.3735689398465</v>
+        <v>333.3099666982316</v>
       </c>
       <c r="M2" t="n">
-        <v>338.9310305269991</v>
+        <v>344.9021214092501</v>
       </c>
       <c r="N2" t="n">
-        <v>311.0835410581395</v>
+        <v>357.6890088018329</v>
       </c>
       <c r="O2" t="n">
-        <v>305.6131308339616</v>
+        <v>340.7393140320108</v>
       </c>
       <c r="P2" t="n">
-        <v>326.2335484802433</v>
+        <v>311.5166764781491</v>
       </c>
       <c r="Q2" t="n">
-        <v>363.3500534703371</v>
+        <v>306.0958213210263</v>
       </c>
       <c r="R2" t="n">
-        <v>398.8502553193518</v>
+        <v>327.1852588579329</v>
       </c>
       <c r="S2" t="n">
-        <v>417.526074823347</v>
+        <v>359.4665785205709</v>
       </c>
       <c r="T2" t="n">
-        <v>445.321904498673</v>
+        <v>396.8375442767432</v>
       </c>
       <c r="U2" t="n">
-        <v>474.1332029993586</v>
+        <v>414.8202037219762</v>
       </c>
       <c r="V2" t="n">
-        <v>489.1560734005882</v>
+        <v>442.0225184155033</v>
       </c>
       <c r="W2" t="n">
-        <v>489.0040731153144</v>
+        <v>473.9557067161969</v>
       </c>
       <c r="X2" t="n">
-        <v>447.4935985584027</v>
+        <v>491.5809330582161</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.8703683984695</v>
+        <v>494.3846230406719</v>
       </c>
       <c r="Z2" t="n">
-        <v>363.9456055962292</v>
+        <v>454.5121370337887</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.3067603629168</v>
+        <v>392.1606262251804</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.1695341462624</v>
+        <v>361.5532062339192</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.0811676833584</v>
+        <v>375.4492198176883</v>
       </c>
       <c r="AD2" t="n">
-        <v>345.1438571091726</v>
+        <v>373.6721032847345</v>
       </c>
       <c r="AE2" t="n">
-        <v>332.4226432842563</v>
+        <v>360.5446941435538</v>
       </c>
       <c r="AF2" t="n">
-        <v>356.9220436808465</v>
+        <v>347.3469473460994</v>
       </c>
       <c r="AG2" t="n">
-        <v>406.3145922037277</v>
+        <v>333.8276790274308</v>
       </c>
       <c r="AH2" t="n">
-        <v>443.3441576766564</v>
+        <v>357.1112083110822</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>405.6340195799611</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>443.5270674462545</v>
       </c>
     </row>
     <row r="3">
@@ -643,103 +655,109 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>316.3263652934497</v>
+        <v>295.9716475622212</v>
       </c>
       <c r="C3" t="n">
-        <v>327.0023312278448</v>
+        <v>297.3839335451282</v>
       </c>
       <c r="D3" t="n">
-        <v>336.7461244968558</v>
+        <v>315.6055140493833</v>
       </c>
       <c r="E3" t="n">
-        <v>348.303951274517</v>
+        <v>327.0807641557006</v>
       </c>
       <c r="F3" t="n">
-        <v>351.0649535657215</v>
+        <v>337.3959107255148</v>
       </c>
       <c r="G3" t="n">
-        <v>349.1681230725624</v>
+        <v>350.5013939016339</v>
       </c>
       <c r="H3" t="n">
-        <v>344.1114065792859</v>
+        <v>352.4163491265649</v>
       </c>
       <c r="I3" t="n">
-        <v>334.1799516530373</v>
+        <v>348.333236426023</v>
       </c>
       <c r="J3" t="n">
-        <v>337.3944028841908</v>
+        <v>344.2678625613656</v>
       </c>
       <c r="K3" t="n">
-        <v>343.2244547603866</v>
+        <v>334.5421694018727</v>
       </c>
       <c r="L3" t="n">
-        <v>351.7395890991785</v>
+        <v>337.2059549384368</v>
       </c>
       <c r="M3" t="n">
-        <v>341.842315599951</v>
+        <v>343.2716387324044</v>
       </c>
       <c r="N3" t="n">
-        <v>321.083743360393</v>
+        <v>352.1163634364593</v>
       </c>
       <c r="O3" t="n">
-        <v>310.9958281838788</v>
+        <v>340.553301187787</v>
       </c>
       <c r="P3" t="n">
-        <v>317.8844079793087</v>
+        <v>318.8907456227732</v>
       </c>
       <c r="Q3" t="n">
-        <v>339.0613836919478</v>
+        <v>310.9830690655793</v>
       </c>
       <c r="R3" t="n">
-        <v>369.8470808699514</v>
+        <v>321.1394877600294</v>
       </c>
       <c r="S3" t="n">
-        <v>395.4192666644295</v>
+        <v>341.874713708423</v>
       </c>
       <c r="T3" t="n">
-        <v>429.8678760808128</v>
+        <v>372.8381245857436</v>
       </c>
       <c r="U3" t="n">
-        <v>463.8210076223137</v>
+        <v>395.6226586966101</v>
       </c>
       <c r="V3" t="n">
-        <v>485.1604374109344</v>
+        <v>427.2357252061083</v>
       </c>
       <c r="W3" t="n">
-        <v>494.8190851846525</v>
+        <v>461.0234388739847</v>
       </c>
       <c r="X3" t="n">
-        <v>471.8430868440907</v>
+        <v>483.2594052979808</v>
       </c>
       <c r="Y3" t="n">
-        <v>427.4634966282689</v>
+        <v>494.7015793095479</v>
       </c>
       <c r="Z3" t="n">
-        <v>396.6017906777289</v>
+        <v>473.0071616108299</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.8466014194988</v>
+        <v>428.0423328098022</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.9791982458309</v>
+        <v>397.2280301320848</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.2196828715462</v>
+        <v>392.741571894539</v>
       </c>
       <c r="AD3" t="n">
-        <v>348.7514622918912</v>
+        <v>378.2488749622007</v>
       </c>
       <c r="AE3" t="n">
-        <v>333.19421072528</v>
+        <v>361.0905739859662</v>
       </c>
       <c r="AF3" t="n">
-        <v>341.0818479336415</v>
+        <v>346.4482535835493</v>
       </c>
       <c r="AG3" t="n">
-        <v>368.2254902733612</v>
+        <v>330.3899569504711</v>
       </c>
       <c r="AH3" t="n">
-        <v>397.3832468778436</v>
+        <v>340.4166688245387</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>371.4999257298286</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>403.8779924352698</v>
       </c>
     </row>
     <row r="4">
@@ -747,103 +765,109 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>300.5596160422878</v>
+        <v>284.0862968461193</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0241205231229</v>
+        <v>291.0867729323872</v>
       </c>
       <c r="D4" t="n">
-        <v>325.2444230272053</v>
+        <v>302.8194138772701</v>
       </c>
       <c r="E4" t="n">
-        <v>336.8374979662885</v>
+        <v>313.4571166873983</v>
       </c>
       <c r="F4" t="n">
-        <v>344.1362811298176</v>
+        <v>325.7408731749537</v>
       </c>
       <c r="G4" t="n">
-        <v>348.3957779112014</v>
+        <v>338.1611802736289</v>
       </c>
       <c r="H4" t="n">
-        <v>349.5419987095732</v>
+        <v>346.0295094662173</v>
       </c>
       <c r="I4" t="n">
-        <v>342.4173178763548</v>
+        <v>351.0592122241598</v>
       </c>
       <c r="J4" t="n">
-        <v>337.2260917277993</v>
+        <v>351.0448059506223</v>
       </c>
       <c r="K4" t="n">
-        <v>336.5492563817622</v>
+        <v>343.5315158125768</v>
       </c>
       <c r="L4" t="n">
-        <v>341.5108826071735</v>
+        <v>338.4534217495942</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1394703057188</v>
+        <v>336.671296401239</v>
       </c>
       <c r="N4" t="n">
-        <v>341.6604553011908</v>
+        <v>340.928338559561</v>
       </c>
       <c r="O4" t="n">
-        <v>330.4633035879933</v>
+        <v>343.4089074617441</v>
       </c>
       <c r="P4" t="n">
-        <v>318.8937115456312</v>
+        <v>340.0459914083035</v>
       </c>
       <c r="Q4" t="n">
-        <v>314.9515012743971</v>
+        <v>330.4793455217849</v>
       </c>
       <c r="R4" t="n">
-        <v>332.0732012111285</v>
+        <v>319.1878411396606</v>
       </c>
       <c r="S4" t="n">
-        <v>362.0485777852244</v>
+        <v>316.8814645839928</v>
       </c>
       <c r="T4" t="n">
-        <v>399.2186531580032</v>
+        <v>334.1711914324862</v>
       </c>
       <c r="U4" t="n">
-        <v>433.901477734809</v>
+        <v>364.4234123422393</v>
       </c>
       <c r="V4" t="n">
-        <v>460.9655613046074</v>
+        <v>401.8278638469378</v>
       </c>
       <c r="W4" t="n">
-        <v>483.2964217765498</v>
+        <v>434.0253375700316</v>
       </c>
       <c r="X4" t="n">
-        <v>491.0892026161711</v>
+        <v>458.1963245094966</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.4501813297007</v>
+        <v>479.6188019369205</v>
       </c>
       <c r="Z4" t="n">
-        <v>441.1379230127701</v>
+        <v>487.381516125812</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.9692299237708</v>
+        <v>473.7099082615609</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.3802181201131</v>
+        <v>442.9039460210575</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.4314335822544</v>
+        <v>407.6920314722542</v>
       </c>
       <c r="AD4" t="n">
-        <v>363.048369928095</v>
+        <v>378.4218012699955</v>
       </c>
       <c r="AE4" t="n">
-        <v>353.8990754710265</v>
+        <v>366.4359280449842</v>
       </c>
       <c r="AF4" t="n">
-        <v>344.4268680591111</v>
+        <v>362.3989559977625</v>
       </c>
       <c r="AG4" t="n">
-        <v>341.5883854891817</v>
+        <v>352.822462484176</v>
       </c>
       <c r="AH4" t="n">
-        <v>357.8442176628594</v>
+        <v>343.0666363386065</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>341.1796689329427</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>358.5343164340791</v>
       </c>
     </row>
     <row r="5">
@@ -851,103 +875,109 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>289.6084809977904</v>
+        <v>278.9575038173115</v>
       </c>
       <c r="C5" t="n">
-        <v>301.0861614117472</v>
+        <v>286.2827824495624</v>
       </c>
       <c r="D5" t="n">
-        <v>314.4855401917198</v>
+        <v>291.2873149797971</v>
       </c>
       <c r="E5" t="n">
-        <v>326.2996413793908</v>
+        <v>300.7421544484209</v>
       </c>
       <c r="F5" t="n">
-        <v>338.3141808663559</v>
+        <v>314.3752417116456</v>
       </c>
       <c r="G5" t="n">
-        <v>347.8216874078112</v>
+        <v>326.1603426372016</v>
       </c>
       <c r="H5" t="n">
-        <v>352.8256644989242</v>
+        <v>337.6645723144895</v>
       </c>
       <c r="I5" t="n">
-        <v>350.0543727387541</v>
+        <v>349.467830885784</v>
       </c>
       <c r="J5" t="n">
-        <v>340.1892305499512</v>
+        <v>353.7354556634544</v>
       </c>
       <c r="K5" t="n">
-        <v>333.4452410652075</v>
+        <v>350.2177818593697</v>
       </c>
       <c r="L5" t="n">
-        <v>333.1040653488578</v>
+        <v>340.8289969119514</v>
       </c>
       <c r="M5" t="n">
-        <v>344.2189899239513</v>
+        <v>333.5646209367173</v>
       </c>
       <c r="N5" t="n">
-        <v>353.5791177993589</v>
+        <v>332.537299524588</v>
       </c>
       <c r="O5" t="n">
-        <v>346.0597702233662</v>
+        <v>343.1225917034162</v>
       </c>
       <c r="P5" t="n">
-        <v>326.6434978931008</v>
+        <v>353.1835577323421</v>
       </c>
       <c r="Q5" t="n">
-        <v>308.3679623451383</v>
+        <v>347.1414890634823</v>
       </c>
       <c r="R5" t="n">
-        <v>310.3396824879262</v>
+        <v>325.0781396866875</v>
       </c>
       <c r="S5" t="n">
-        <v>334.4891540846136</v>
+        <v>307.6870118229592</v>
       </c>
       <c r="T5" t="n">
-        <v>364.4092067818273</v>
+        <v>309.3426227915206</v>
       </c>
       <c r="U5" t="n">
-        <v>393.4740029350705</v>
+        <v>334.7073176275053</v>
       </c>
       <c r="V5" t="n">
-        <v>423.371151864549</v>
+        <v>367.372749167327</v>
       </c>
       <c r="W5" t="n">
-        <v>455.607192286177</v>
+        <v>395.4925437730337</v>
       </c>
       <c r="X5" t="n">
-        <v>489.0196864581602</v>
+        <v>422.7752591969077</v>
       </c>
       <c r="Y5" t="n">
-        <v>501.9295809336769</v>
+        <v>454.0791828115673</v>
       </c>
       <c r="Z5" t="n">
-        <v>478.5615162338717</v>
+        <v>486.3125301061946</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.3218628230284</v>
+        <v>501.5560308654895</v>
       </c>
       <c r="AB5" t="n">
-        <v>396.295261091422</v>
+        <v>479.384672282304</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.2948920171255</v>
+        <v>430.9143242939483</v>
       </c>
       <c r="AD5" t="n">
-        <v>377.7417542206974</v>
+        <v>394.396238912444</v>
       </c>
       <c r="AE5" t="n">
-        <v>371.6416673451614</v>
+        <v>381.0374543294454</v>
       </c>
       <c r="AF5" t="n">
-        <v>352.5627982986919</v>
+        <v>378.1582301155276</v>
       </c>
       <c r="AG5" t="n">
-        <v>332.7122949640769</v>
+        <v>372.4563381994143</v>
       </c>
       <c r="AH5" t="n">
-        <v>338.635444051968</v>
+        <v>352.0680726381706</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>331.0276896371158</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>334.6227453789915</v>
       </c>
     </row>
     <row r="6">
@@ -955,103 +985,109 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>285.7355753103028</v>
+        <v>283.7446200386009</v>
       </c>
       <c r="C6" t="n">
-        <v>292.9218909438355</v>
+        <v>283.3752135165741</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3918568746976</v>
+        <v>283.2121716320377</v>
       </c>
       <c r="E6" t="n">
-        <v>317.8716008012297</v>
+        <v>291.1887140456386</v>
       </c>
       <c r="F6" t="n">
-        <v>333.645852364254</v>
+        <v>304.7485181678479</v>
       </c>
       <c r="G6" t="n">
-        <v>346.294977701949</v>
+        <v>316.8611152282623</v>
       </c>
       <c r="H6" t="n">
-        <v>352.0098045500878</v>
+        <v>328.8195701297595</v>
       </c>
       <c r="I6" t="n">
-        <v>354.5877651190996</v>
+        <v>342.4434413118552</v>
       </c>
       <c r="J6" t="n">
-        <v>346.9285994697208</v>
+        <v>350.4529268320935</v>
       </c>
       <c r="K6" t="n">
-        <v>337.2635445276353</v>
+        <v>352.6735068494913</v>
       </c>
       <c r="L6" t="n">
-        <v>331.2484496334374</v>
+        <v>345.8084679656127</v>
       </c>
       <c r="M6" t="n">
-        <v>338.9568735478605</v>
+        <v>338.2763826917539</v>
       </c>
       <c r="N6" t="n">
-        <v>349.9954069689686</v>
+        <v>332.5486517483473</v>
       </c>
       <c r="O6" t="n">
-        <v>349.7972950100026</v>
+        <v>338.9944214845092</v>
       </c>
       <c r="P6" t="n">
-        <v>338.0013781760823</v>
+        <v>349.4760632732942</v>
       </c>
       <c r="Q6" t="n">
-        <v>323.7315671912879</v>
+        <v>351.6624863053782</v>
       </c>
       <c r="R6" t="n">
-        <v>314.5141701811791</v>
+        <v>337.9867234357617</v>
       </c>
       <c r="S6" t="n">
-        <v>322.3840417354046</v>
+        <v>322.6190274096574</v>
       </c>
       <c r="T6" t="n">
-        <v>335.5094376063074</v>
+        <v>312.1673902491338</v>
       </c>
       <c r="U6" t="n">
-        <v>353.5219322408536</v>
+        <v>317.418308071233</v>
       </c>
       <c r="V6" t="n">
-        <v>382.0474524065134</v>
+        <v>332.210646286434</v>
       </c>
       <c r="W6" t="n">
-        <v>417.8254974495755</v>
+        <v>354.2979679948278</v>
       </c>
       <c r="X6" t="n">
-        <v>461.9739265441448</v>
+        <v>385.577998313459</v>
       </c>
       <c r="Y6" t="n">
-        <v>496.6733100888054</v>
+        <v>423.5227045523525</v>
       </c>
       <c r="Z6" t="n">
-        <v>496.1770996970795</v>
+        <v>465.3062455987169</v>
       </c>
       <c r="AA6" t="n">
-        <v>462.6370238592339</v>
+        <v>496.6583580815779</v>
       </c>
       <c r="AB6" t="n">
-        <v>429.6715382360911</v>
+        <v>493.812650701839</v>
       </c>
       <c r="AC6" t="n">
-        <v>406.0947284523904</v>
+        <v>462.6112641456732</v>
       </c>
       <c r="AD6" t="n">
-        <v>389.345606530429</v>
+        <v>431.7836088963861</v>
       </c>
       <c r="AE6" t="n">
-        <v>378.2782031889684</v>
+        <v>406.7629867530464</v>
       </c>
       <c r="AF6" t="n">
-        <v>360.0612686032511</v>
+        <v>388.6103883049112</v>
       </c>
       <c r="AG6" t="n">
-        <v>343.299869404099</v>
+        <v>378.2841779654116</v>
       </c>
       <c r="AH6" t="n">
-        <v>344.5035623776789</v>
+        <v>361.4746124799745</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>346.0497215984654</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>342.5523096492912</v>
       </c>
     </row>
     <row r="7">
@@ -1059,103 +1095,109 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>283.711291343456</v>
+        <v>294.056705515432</v>
       </c>
       <c r="C7" t="n">
-        <v>284.2740278637182</v>
+        <v>283.37319755277</v>
       </c>
       <c r="D7" t="n">
-        <v>292.4943636247584</v>
+        <v>278.8823215851459</v>
       </c>
       <c r="E7" t="n">
-        <v>304.4283376106176</v>
+        <v>283.1315996780008</v>
       </c>
       <c r="F7" t="n">
-        <v>321.05679458495</v>
+        <v>292.9846293339588</v>
       </c>
       <c r="G7" t="n">
-        <v>335.5006332537314</v>
+        <v>304.9168996073358</v>
       </c>
       <c r="H7" t="n">
-        <v>343.0195263639995</v>
+        <v>316.6953775327057</v>
       </c>
       <c r="I7" t="n">
-        <v>351.5826009456291</v>
+        <v>329.1802033292614</v>
       </c>
       <c r="J7" t="n">
-        <v>353.06068247672</v>
+        <v>340.4575701017469</v>
       </c>
       <c r="K7" t="n">
-        <v>347.2902393511713</v>
+        <v>349.3383093114398</v>
       </c>
       <c r="L7" t="n">
-        <v>339.3714759605941</v>
+        <v>350.8299080824333</v>
       </c>
       <c r="M7" t="n">
-        <v>336.2461909990071</v>
+        <v>348.0217324365177</v>
       </c>
       <c r="N7" t="n">
-        <v>337.3533458390083</v>
+        <v>340.9156371736905</v>
       </c>
       <c r="O7" t="n">
-        <v>340.6087941548955</v>
+        <v>336.3760349964356</v>
       </c>
       <c r="P7" t="n">
-        <v>342.2464708916035</v>
+        <v>336.5494928078967</v>
       </c>
       <c r="Q7" t="n">
-        <v>342.4218565531274</v>
+        <v>342.9555855580585</v>
       </c>
       <c r="R7" t="n">
-        <v>331.6674394718846</v>
+        <v>346.297358908625</v>
       </c>
       <c r="S7" t="n">
-        <v>323.6517585517739</v>
+        <v>343.8422092207563</v>
       </c>
       <c r="T7" t="n">
-        <v>320.6956897549066</v>
+        <v>330.6691122656707</v>
       </c>
       <c r="U7" t="n">
-        <v>328.1928859837952</v>
+        <v>316.0175627280898</v>
       </c>
       <c r="V7" t="n">
-        <v>350.9912021584636</v>
+        <v>310.941635040146</v>
       </c>
       <c r="W7" t="n">
-        <v>382.6287737074016</v>
+        <v>324.9621003311256</v>
       </c>
       <c r="X7" t="n">
-        <v>421.1570764970259</v>
+        <v>355.1350689516494</v>
       </c>
       <c r="Y7" t="n">
-        <v>462.131627125532</v>
+        <v>391.5252515841461</v>
       </c>
       <c r="Z7" t="n">
-        <v>487.5992376611803</v>
+        <v>428.9089869889232</v>
       </c>
       <c r="AA7" t="n">
-        <v>490.8279898384076</v>
+        <v>463.4173772560324</v>
       </c>
       <c r="AB7" t="n">
-        <v>471.4511845211232</v>
+        <v>484.6891807332332</v>
       </c>
       <c r="AC7" t="n">
-        <v>439.9056986370929</v>
+        <v>489.7656454339134</v>
       </c>
       <c r="AD7" t="n">
-        <v>407.5891434700074</v>
+        <v>476.0390639054232</v>
       </c>
       <c r="AE7" t="n">
-        <v>382.3140474671563</v>
+        <v>441.5788454098011</v>
       </c>
       <c r="AF7" t="n">
-        <v>364.5973863125436</v>
+        <v>403.9094153773602</v>
       </c>
       <c r="AG7" t="n">
-        <v>355.9042390257123</v>
+        <v>380.2535713752748</v>
       </c>
       <c r="AH7" t="n">
-        <v>351.9359278134114</v>
+        <v>368.1147211701009</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>364.87307509618</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>358.078081005434</v>
       </c>
     </row>
     <row r="8">
@@ -1163,103 +1205,109 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>286.9015102920404</v>
+        <v>306.4722088386717</v>
       </c>
       <c r="C8" t="n">
-        <v>281.1340880283178</v>
+        <v>289.8337224648907</v>
       </c>
       <c r="D8" t="n">
-        <v>282.9308701182396</v>
+        <v>281.9619947586571</v>
       </c>
       <c r="E8" t="n">
-        <v>291.4194157351315</v>
+        <v>280.2914318256874</v>
       </c>
       <c r="F8" t="n">
-        <v>304.758795778332</v>
+        <v>283.0199978963397</v>
       </c>
       <c r="G8" t="n">
-        <v>318.5725706802511</v>
+        <v>292.1132030041518</v>
       </c>
       <c r="H8" t="n">
-        <v>328.495581759904</v>
+        <v>302.9693454964909</v>
       </c>
       <c r="I8" t="n">
-        <v>341.4293349551548</v>
+        <v>313.0760611946585</v>
       </c>
       <c r="J8" t="n">
-        <v>352.8801758011093</v>
+        <v>326.0980904944309</v>
       </c>
       <c r="K8" t="n">
-        <v>355.088804364117</v>
+        <v>339.9846656558684</v>
       </c>
       <c r="L8" t="n">
-        <v>350.1657427848727</v>
+        <v>350.8790132319005</v>
       </c>
       <c r="M8" t="n">
-        <v>338.8550714927169</v>
+        <v>355.1651170373529</v>
       </c>
       <c r="N8" t="n">
-        <v>329.2500426918875</v>
+        <v>351.3006092817942</v>
       </c>
       <c r="O8" t="n">
-        <v>331.7058159575677</v>
+        <v>338.8637278313453</v>
       </c>
       <c r="P8" t="n">
-        <v>342.3922502956681</v>
+        <v>327.8543106964849</v>
       </c>
       <c r="Q8" t="n">
-        <v>354.3642390547502</v>
+        <v>331.5237265387155</v>
       </c>
       <c r="R8" t="n">
-        <v>348.2328851654092</v>
+        <v>346.5701169393532</v>
       </c>
       <c r="S8" t="n">
-        <v>332.2159428231155</v>
+        <v>356.1556996956185</v>
       </c>
       <c r="T8" t="n">
-        <v>320.2925826893037</v>
+        <v>348.7828384589996</v>
       </c>
       <c r="U8" t="n">
-        <v>320.3111459945454</v>
+        <v>327.0070248673549</v>
       </c>
       <c r="V8" t="n">
-        <v>334.1929848948243</v>
+        <v>310.9567945072684</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0706482658533</v>
+        <v>315.9746019137623</v>
       </c>
       <c r="X8" t="n">
-        <v>380.7889202387857</v>
+        <v>336.939477805894</v>
       </c>
       <c r="Y8" t="n">
-        <v>415.9044279260989</v>
+        <v>362.7717277020024</v>
       </c>
       <c r="Z8" t="n">
-        <v>458.1854509283785</v>
+        <v>387.9519084014009</v>
       </c>
       <c r="AA8" t="n">
-        <v>495.8173279381951</v>
+        <v>417.0494970908512</v>
       </c>
       <c r="AB8" t="n">
-        <v>497.9547023918408</v>
+        <v>456.1768753599151</v>
       </c>
       <c r="AC8" t="n">
-        <v>471.1018927693258</v>
+        <v>494.3749664260432</v>
       </c>
       <c r="AD8" t="n">
-        <v>433.6361861731677</v>
+        <v>502.2084255937651</v>
       </c>
       <c r="AE8" t="n">
-        <v>398.4413849408868</v>
+        <v>472.9116063555051</v>
       </c>
       <c r="AF8" t="n">
-        <v>379.760357710316</v>
+        <v>429.1936277788794</v>
       </c>
       <c r="AG8" t="n">
-        <v>374.0772767204186</v>
+        <v>394.2876972328256</v>
       </c>
       <c r="AH8" t="n">
-        <v>362.8001305867072</v>
+        <v>380.9497275859934</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>380.7073702461019</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>370.423842105221</v>
       </c>
     </row>
     <row r="9">
@@ -1267,103 +1315,109 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>293.9646169461137</v>
+        <v>316.6330096073826</v>
       </c>
       <c r="C9" t="n">
-        <v>284.7009217117924</v>
+        <v>303.4024118272055</v>
       </c>
       <c r="D9" t="n">
-        <v>280.2392484697809</v>
+        <v>292.6205688386193</v>
       </c>
       <c r="E9" t="n">
-        <v>282.2861326805069</v>
+        <v>284.2497569853089</v>
       </c>
       <c r="F9" t="n">
-        <v>289.2471713225744</v>
+        <v>278.7560340205033</v>
       </c>
       <c r="G9" t="n">
-        <v>300.4221905523711</v>
+        <v>281.2525710057915</v>
       </c>
       <c r="H9" t="n">
-        <v>312.8454485924572</v>
+        <v>290.1450962723117</v>
       </c>
       <c r="I9" t="n">
-        <v>327.1958119904864</v>
+        <v>299.0318274722025</v>
       </c>
       <c r="J9" t="n">
-        <v>342.8682661043331</v>
+        <v>311.8971926067701</v>
       </c>
       <c r="K9" t="n">
-        <v>352.2886150968432</v>
+        <v>327.2383486876603</v>
       </c>
       <c r="L9" t="n">
-        <v>353.8127531589369</v>
+        <v>342.5247203807916</v>
       </c>
       <c r="M9" t="n">
-        <v>345.7030469643032</v>
+        <v>351.947343678715</v>
       </c>
       <c r="N9" t="n">
-        <v>335.7975765285674</v>
+        <v>354.5259089228836</v>
       </c>
       <c r="O9" t="n">
-        <v>334.6922377028675</v>
+        <v>346.7527253537648</v>
       </c>
       <c r="P9" t="n">
-        <v>341.6677068685674</v>
+        <v>335.8498715262103</v>
       </c>
       <c r="Q9" t="n">
-        <v>350.6582708460011</v>
+        <v>331.7614093779741</v>
       </c>
       <c r="R9" t="n">
-        <v>348.6750141458419</v>
+        <v>341.1397669547652</v>
       </c>
       <c r="S9" t="n">
-        <v>336.2546708487541</v>
+        <v>349.1643005018533</v>
       </c>
       <c r="T9" t="n">
-        <v>325.5121106994315</v>
+        <v>349.0843337654105</v>
       </c>
       <c r="U9" t="n">
-        <v>322.2867825952915</v>
+        <v>338.0757079902475</v>
       </c>
       <c r="V9" t="n">
-        <v>327.0909672092589</v>
+        <v>325.830074473937</v>
       </c>
       <c r="W9" t="n">
-        <v>338.8353655317814</v>
+        <v>322.3393681034156</v>
       </c>
       <c r="X9" t="n">
-        <v>354.3677128228394</v>
+        <v>327.5554391274015</v>
       </c>
       <c r="Y9" t="n">
-        <v>381.3251286209087</v>
+        <v>338.4613730509106</v>
       </c>
       <c r="Z9" t="n">
-        <v>423.6003259883372</v>
+        <v>355.2608137453212</v>
       </c>
       <c r="AA9" t="n">
-        <v>470.6216837880929</v>
+        <v>380.8251313622907</v>
       </c>
       <c r="AB9" t="n">
-        <v>492.3827175942831</v>
+        <v>423.2005507071886</v>
       </c>
       <c r="AC9" t="n">
-        <v>486.2944239236938</v>
+        <v>468.8598324996981</v>
       </c>
       <c r="AD9" t="n">
-        <v>463.1928844037683</v>
+        <v>492.6898621010899</v>
       </c>
       <c r="AE9" t="n">
-        <v>433.193320177291</v>
+        <v>488.3333804791242</v>
       </c>
       <c r="AF9" t="n">
-        <v>410.9594486351038</v>
+        <v>464.1915496746431</v>
       </c>
       <c r="AG9" t="n">
-        <v>394.9910275464425</v>
+        <v>432.2723596893314</v>
       </c>
       <c r="AH9" t="n">
-        <v>373.3931515882979</v>
+        <v>408.9697680773806</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>391.4968664321606</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>372.8575088151668</v>
       </c>
     </row>
     <row r="10">
@@ -1371,103 +1425,109 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>299.6607405922657</v>
+        <v>322.706730355073</v>
       </c>
       <c r="C10" t="n">
-        <v>289.6596922714359</v>
+        <v>318.7815036618364</v>
       </c>
       <c r="D10" t="n">
-        <v>280.1046597610985</v>
+        <v>305.9079679669317</v>
       </c>
       <c r="E10" t="n">
-        <v>274.5516733645</v>
+        <v>291.9063863648001</v>
       </c>
       <c r="F10" t="n">
-        <v>274.0749996024928</v>
+        <v>279.4687936209064</v>
       </c>
       <c r="G10" t="n">
-        <v>282.0411453786751</v>
+        <v>273.846682930072</v>
       </c>
       <c r="H10" t="n">
-        <v>297.369214134871</v>
+        <v>279.8764540302708</v>
       </c>
       <c r="I10" t="n">
-        <v>310.9270784020849</v>
+        <v>288.5935383102991</v>
       </c>
       <c r="J10" t="n">
-        <v>325.7121395934556</v>
+        <v>299.9213435454961</v>
       </c>
       <c r="K10" t="n">
-        <v>340.670427117069</v>
+        <v>313.8398348458094</v>
       </c>
       <c r="L10" t="n">
-        <v>350.2038325643388</v>
+        <v>328.4953719632546</v>
       </c>
       <c r="M10" t="n">
-        <v>353.6269190095244</v>
+        <v>340.1893411701741</v>
       </c>
       <c r="N10" t="n">
-        <v>351.417102389042</v>
+        <v>349.7096050315368</v>
       </c>
       <c r="O10" t="n">
-        <v>344.5363844398732</v>
+        <v>355.2589640722887</v>
       </c>
       <c r="P10" t="n">
-        <v>337.6464637133332</v>
+        <v>353.9379505548477</v>
       </c>
       <c r="Q10" t="n">
-        <v>331.8651755328955</v>
+        <v>341.6139624452359</v>
       </c>
       <c r="R10" t="n">
-        <v>332.9934546482293</v>
+        <v>333.9133188109965</v>
       </c>
       <c r="S10" t="n">
-        <v>333.0017634431424</v>
+        <v>330.094504462343</v>
       </c>
       <c r="T10" t="n">
-        <v>331.5289668937975</v>
+        <v>335.023361236389</v>
       </c>
       <c r="U10" t="n">
-        <v>329.2332478121174</v>
+        <v>343.7509284713088</v>
       </c>
       <c r="V10" t="n">
-        <v>326.6227224851483</v>
+        <v>344.0487425087694</v>
       </c>
       <c r="W10" t="n">
-        <v>330.1145965723528</v>
+        <v>333.9411589717175</v>
       </c>
       <c r="X10" t="n">
-        <v>342.4655428064922</v>
+        <v>322.5698612078818</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.4489392364986</v>
+        <v>319.4259331469389</v>
       </c>
       <c r="Z10" t="n">
-        <v>390.8185540902502</v>
+        <v>333.5686372282854</v>
       </c>
       <c r="AA10" t="n">
-        <v>425.9409302020267</v>
+        <v>359.219668599002</v>
       </c>
       <c r="AB10" t="n">
-        <v>462.8149988434936</v>
+        <v>393.7887520525102</v>
       </c>
       <c r="AC10" t="n">
-        <v>486.5101946938524</v>
+        <v>426.0930939989143</v>
       </c>
       <c r="AD10" t="n">
-        <v>489.8690867057702</v>
+        <v>458.127957193389</v>
       </c>
       <c r="AE10" t="n">
-        <v>474.7807996167531</v>
+        <v>487.2893489280369</v>
       </c>
       <c r="AF10" t="n">
-        <v>445.7733979693576</v>
+        <v>497.428712024442</v>
       </c>
       <c r="AG10" t="n">
-        <v>408.9773089577235</v>
+        <v>479.9945517303563</v>
       </c>
       <c r="AH10" t="n">
-        <v>375.4699395540534</v>
+        <v>443.9451142815</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>399.1259242544651</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>369.7690755291734</v>
       </c>
     </row>
     <row r="11">
@@ -1475,103 +1535,109 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>311.6981951156367</v>
+        <v>327.3034713267556</v>
       </c>
       <c r="C11" t="n">
-        <v>302.3381182829185</v>
+        <v>329.2734114105677</v>
       </c>
       <c r="D11" t="n">
-        <v>290.5732923890946</v>
+        <v>318.9256227403062</v>
       </c>
       <c r="E11" t="n">
-        <v>280.0345515029259</v>
+        <v>304.9553846639257</v>
       </c>
       <c r="F11" t="n">
-        <v>273.544244800156</v>
+        <v>291.3276861930482</v>
       </c>
       <c r="G11" t="n">
-        <v>275.9533239398262</v>
+        <v>280.4809607229403</v>
       </c>
       <c r="H11" t="n">
-        <v>287.8015856232856</v>
+        <v>279.2111773144919</v>
       </c>
       <c r="I11" t="n">
-        <v>298.0718890990739</v>
+        <v>284.1818652084637</v>
       </c>
       <c r="J11" t="n">
-        <v>310.0928544372554</v>
+        <v>291.4553711852327</v>
       </c>
       <c r="K11" t="n">
-        <v>326.1939249824498</v>
+        <v>301.0259828467014</v>
       </c>
       <c r="L11" t="n">
-        <v>340.294214767221</v>
+        <v>312.578173673224</v>
       </c>
       <c r="M11" t="n">
-        <v>352.1638616439273</v>
+        <v>324.8744400936745</v>
       </c>
       <c r="N11" t="n">
-        <v>357.672743488675</v>
+        <v>338.0526527482825</v>
       </c>
       <c r="O11" t="n">
-        <v>351.7763322423927</v>
+        <v>352.5881557339984</v>
       </c>
       <c r="P11" t="n">
-        <v>340.2972681175279</v>
+        <v>360.6466695691473</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.3511102878519</v>
+        <v>351.7250751321019</v>
       </c>
       <c r="R11" t="n">
-        <v>330.0773676082985</v>
+        <v>336.759110747361</v>
       </c>
       <c r="S11" t="n">
-        <v>335.9925183207653</v>
+        <v>326.5731853904453</v>
       </c>
       <c r="T11" t="n">
-        <v>338.577200694869</v>
+        <v>330.462202251491</v>
       </c>
       <c r="U11" t="n">
-        <v>335.2565990050607</v>
+        <v>344.8064053486031</v>
       </c>
       <c r="V11" t="n">
-        <v>327.2124295624283</v>
+        <v>350.7313521885902</v>
       </c>
       <c r="W11" t="n">
-        <v>323.6262531057998</v>
+        <v>339.3994326292164</v>
       </c>
       <c r="X11" t="n">
-        <v>330.5271908871275</v>
+        <v>321.9460792461616</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.8204081442983</v>
+        <v>312.7500344481322</v>
       </c>
       <c r="Z11" t="n">
-        <v>359.4661440219858</v>
+        <v>321.7161256318373</v>
       </c>
       <c r="AA11" t="n">
-        <v>383.278521833473</v>
+        <v>341.8116309007452</v>
       </c>
       <c r="AB11" t="n">
-        <v>424.6090086066677</v>
+        <v>363.723679060407</v>
       </c>
       <c r="AC11" t="n">
-        <v>466.2450311038402</v>
+        <v>383.416949748467</v>
       </c>
       <c r="AD11" t="n">
-        <v>491.4456524089452</v>
+        <v>417.1831801740741</v>
       </c>
       <c r="AE11" t="n">
-        <v>495.1480372857082</v>
+        <v>463.5801503491243</v>
       </c>
       <c r="AF11" t="n">
-        <v>473.8946957269714</v>
+        <v>497.5285801749145</v>
       </c>
       <c r="AG11" t="n">
-        <v>436.0333091286331</v>
+        <v>501.269851280287</v>
       </c>
       <c r="AH11" t="n">
-        <v>402.4102427047156</v>
+        <v>473.2517863612784</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>427.7111747808449</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>396.5782603876389</v>
       </c>
     </row>
     <row r="12">
@@ -1579,103 +1645,109 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>327.4450944910303</v>
+        <v>330.1240707621149</v>
       </c>
       <c r="C12" t="n">
-        <v>319.6693532202626</v>
+        <v>331.4385876888795</v>
       </c>
       <c r="D12" t="n">
-        <v>308.7496928704348</v>
+        <v>327.887133692471</v>
       </c>
       <c r="E12" t="n">
-        <v>297.0376696846711</v>
+        <v>319.1048139314548</v>
       </c>
       <c r="F12" t="n">
-        <v>287.0234712850021</v>
+        <v>309.4751891948323</v>
       </c>
       <c r="G12" t="n">
-        <v>282.5225833979816</v>
+        <v>298.056067913835</v>
       </c>
       <c r="H12" t="n">
-        <v>285.1759687389339</v>
+        <v>287.0890765851466</v>
       </c>
       <c r="I12" t="n">
-        <v>290.3955388320932</v>
+        <v>284.7919978604284</v>
       </c>
       <c r="J12" t="n">
-        <v>299.5174754040539</v>
+        <v>286.5882848204625</v>
       </c>
       <c r="K12" t="n">
-        <v>313.0016893068859</v>
+        <v>290.558277883795</v>
       </c>
       <c r="L12" t="n">
-        <v>327.5621113239927</v>
+        <v>299.5102214024373</v>
       </c>
       <c r="M12" t="n">
-        <v>341.2380077054397</v>
+        <v>312.1833353481572</v>
       </c>
       <c r="N12" t="n">
-        <v>350.5439133464948</v>
+        <v>325.4468517273818</v>
       </c>
       <c r="O12" t="n">
-        <v>351.8190511060737</v>
+        <v>338.909880451701</v>
       </c>
       <c r="P12" t="n">
-        <v>347.6621148945827</v>
+        <v>349.1692098402439</v>
       </c>
       <c r="Q12" t="n">
-        <v>341.9736657147935</v>
+        <v>353.366158028604</v>
       </c>
       <c r="R12" t="n">
-        <v>343.2369576011969</v>
+        <v>347.011856228021</v>
       </c>
       <c r="S12" t="n">
-        <v>346.8759295649562</v>
+        <v>342.2253545855379</v>
       </c>
       <c r="T12" t="n">
-        <v>347.2465057176873</v>
+        <v>342.2974369708327</v>
       </c>
       <c r="U12" t="n">
-        <v>341.2775740210446</v>
+        <v>345.4587649506338</v>
       </c>
       <c r="V12" t="n">
-        <v>330.5291255205811</v>
+        <v>347.0196041398999</v>
       </c>
       <c r="W12" t="n">
-        <v>321.5357450816804</v>
+        <v>339.8040341130426</v>
       </c>
       <c r="X12" t="n">
-        <v>319.046410517725</v>
+        <v>327.6164072403081</v>
       </c>
       <c r="Y12" t="n">
-        <v>322.0185660883681</v>
+        <v>319.9887188894128</v>
       </c>
       <c r="Z12" t="n">
-        <v>332.4480414234474</v>
+        <v>318.0266045677211</v>
       </c>
       <c r="AA12" t="n">
-        <v>351.866539908887</v>
+        <v>324.0386637262446</v>
       </c>
       <c r="AB12" t="n">
-        <v>387.5388862622603</v>
+        <v>334.261550246513</v>
       </c>
       <c r="AC12" t="n">
-        <v>430.5829251508345</v>
+        <v>353.156883990031</v>
       </c>
       <c r="AD12" t="n">
-        <v>466.5839146728524</v>
+        <v>385.2594158233658</v>
       </c>
       <c r="AE12" t="n">
-        <v>486.9269075652959</v>
+        <v>426.5827336673694</v>
       </c>
       <c r="AF12" t="n">
-        <v>486.8109002931427</v>
+        <v>463.6252750824861</v>
       </c>
       <c r="AG12" t="n">
-        <v>469.931307114644</v>
+        <v>485.2833732989021</v>
       </c>
       <c r="AH12" t="n">
-        <v>448.6983700320798</v>
+        <v>484.8345130260864</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>469.1847987959739</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>447.6090294261618</v>
       </c>
     </row>
     <row r="13">
@@ -1683,103 +1755,109 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>334.6686103337654</v>
+        <v>326.8984888899165</v>
       </c>
       <c r="C13" t="n">
-        <v>329.6951596016013</v>
+        <v>326.2394644334008</v>
       </c>
       <c r="D13" t="n">
-        <v>321.9707876268566</v>
+        <v>329.5914451163073</v>
       </c>
       <c r="E13" t="n">
-        <v>312.0426200887744</v>
+        <v>327.0943076170881</v>
       </c>
       <c r="F13" t="n">
-        <v>301.5325036923513</v>
+        <v>323.0450118892049</v>
       </c>
       <c r="G13" t="n">
-        <v>292.248114880448</v>
+        <v>313.714239964839</v>
       </c>
       <c r="H13" t="n">
-        <v>286.2769405501331</v>
+        <v>295.9329747766991</v>
       </c>
       <c r="I13" t="n">
-        <v>286.533959701077</v>
+        <v>287.7553443223468</v>
       </c>
       <c r="J13" t="n">
-        <v>292.0079652511265</v>
+        <v>285.04346140933</v>
       </c>
       <c r="K13" t="n">
-        <v>300.9059425337243</v>
+        <v>283.9540324265348</v>
       </c>
       <c r="L13" t="n">
-        <v>313.516105145225</v>
+        <v>290.248465305739</v>
       </c>
       <c r="M13" t="n">
-        <v>326.4860805039517</v>
+        <v>302.2258501301404</v>
       </c>
       <c r="N13" t="n">
-        <v>337.6646369026664</v>
+        <v>313.9459135084965</v>
       </c>
       <c r="O13" t="n">
-        <v>345.7321499522601</v>
+        <v>323.3979908128428</v>
       </c>
       <c r="P13" t="n">
-        <v>349.642009389769</v>
+        <v>332.8609642935355</v>
       </c>
       <c r="Q13" t="n">
-        <v>351.4637585966514</v>
+        <v>348.8378565117679</v>
       </c>
       <c r="R13" t="n">
-        <v>351.9657646001859</v>
+        <v>352.8064221125106</v>
       </c>
       <c r="S13" t="n">
-        <v>352.7416023293206</v>
+        <v>355.1119850185474</v>
       </c>
       <c r="T13" t="n">
-        <v>351.4332437721334</v>
+        <v>352.1530980472309</v>
       </c>
       <c r="U13" t="n">
-        <v>345.1865644405377</v>
+        <v>343.6626912227255</v>
       </c>
       <c r="V13" t="n">
-        <v>335.824392521076</v>
+        <v>340.9600597367807</v>
       </c>
       <c r="W13" t="n">
-        <v>325.8913811977579</v>
+        <v>340.21128735056</v>
       </c>
       <c r="X13" t="n">
-        <v>317.5055708450985</v>
+        <v>336.983740875834</v>
       </c>
       <c r="Y13" t="n">
-        <v>314.6689948736016</v>
+        <v>334.2701686140099</v>
       </c>
       <c r="Z13" t="n">
-        <v>318.5608053982683</v>
+        <v>323.5285950371123</v>
       </c>
       <c r="AA13" t="n">
-        <v>331.8023093896865</v>
+        <v>316.2048572528068</v>
       </c>
       <c r="AB13" t="n">
-        <v>355.3907338447524</v>
+        <v>315.9709499942749</v>
       </c>
       <c r="AC13" t="n">
-        <v>390.8284449476755</v>
+        <v>334.3618093976207</v>
       </c>
       <c r="AD13" t="n">
-        <v>429.1085016454482</v>
+        <v>360.866857780416</v>
       </c>
       <c r="AE13" t="n">
-        <v>459.9473988427223</v>
+        <v>389.3909613361258</v>
       </c>
       <c r="AF13" t="n">
-        <v>478.7920718296924</v>
+        <v>420.8661944833705</v>
       </c>
       <c r="AG13" t="n">
-        <v>484.3244259733604</v>
+        <v>453.4066902029608</v>
       </c>
       <c r="AH13" t="n">
-        <v>478.141750371517</v>
+        <v>478.1958590431989</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>493.6128005983238</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>484.0950929337909</v>
       </c>
     </row>
     <row r="14">
@@ -1787,103 +1865,109 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331.7299104957598</v>
+        <v>316.7458040142194</v>
       </c>
       <c r="C14" t="n">
-        <v>330.1987860254056</v>
+        <v>316.0802068794348</v>
       </c>
       <c r="D14" t="n">
-        <v>326.8090457787024</v>
+        <v>324.1944291950969</v>
       </c>
       <c r="E14" t="n">
-        <v>320.2509905029492</v>
+        <v>326.8682559124853</v>
       </c>
       <c r="F14" t="n">
-        <v>311.6469069033639</v>
+        <v>327.9764906929151</v>
       </c>
       <c r="G14" t="n">
-        <v>300.6544930510641</v>
+        <v>321.5638956227758</v>
       </c>
       <c r="H14" t="n">
-        <v>289.2245879893414</v>
+        <v>301.6418247221755</v>
       </c>
       <c r="I14" t="n">
-        <v>285.7061019156253</v>
+        <v>291.2850483438879</v>
       </c>
       <c r="J14" t="n">
-        <v>286.9878883179284</v>
+        <v>285.9888079241025</v>
       </c>
       <c r="K14" t="n">
-        <v>290.7086904097279</v>
+        <v>281.0543506977639</v>
       </c>
       <c r="L14" t="n">
-        <v>300.2614545246207</v>
+        <v>283.834879967696</v>
       </c>
       <c r="M14" t="n">
-        <v>312.4225904500327</v>
+        <v>293.4951846581932</v>
       </c>
       <c r="N14" t="n">
-        <v>325.0709734657862</v>
+        <v>303.2215459111138</v>
       </c>
       <c r="O14" t="n">
-        <v>337.2100245428823</v>
+        <v>310.9049538930657</v>
       </c>
       <c r="P14" t="n">
-        <v>345.3117550097725</v>
+        <v>320.6749501493804</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.9408562665144</v>
+        <v>342.3527774770324</v>
       </c>
       <c r="R14" t="n">
-        <v>350.2785347929736</v>
+        <v>349.865118856348</v>
       </c>
       <c r="S14" t="n">
-        <v>350.1906089134034</v>
+        <v>354.2968814563448</v>
       </c>
       <c r="T14" t="n">
-        <v>349.5707536197799</v>
+        <v>349.6977118546889</v>
       </c>
       <c r="U14" t="n">
-        <v>345.7182254674578</v>
+        <v>337.3778311830068</v>
       </c>
       <c r="V14" t="n">
-        <v>340.9018042958472</v>
+        <v>335.6744974356312</v>
       </c>
       <c r="W14" t="n">
-        <v>334.3135719375905</v>
+        <v>341.6122749641706</v>
       </c>
       <c r="X14" t="n">
-        <v>326.0228258279722</v>
+        <v>346.4475166137924</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.5046844371753</v>
+        <v>349.5272962345367</v>
       </c>
       <c r="Z14" t="n">
-        <v>319.0055500820846</v>
+        <v>336.7969731579586</v>
       </c>
       <c r="AA14" t="n">
-        <v>322.2621107134574</v>
+        <v>322.6248727172151</v>
       </c>
       <c r="AB14" t="n">
-        <v>331.336706857432</v>
+        <v>312.5485380015875</v>
       </c>
       <c r="AC14" t="n">
-        <v>355.9922831395252</v>
+        <v>323.1140289028735</v>
       </c>
       <c r="AD14" t="n">
-        <v>391.4101924957086</v>
+        <v>340.0639531105716</v>
       </c>
       <c r="AE14" t="n">
-        <v>426.6150755170959</v>
+        <v>357.7016796225244</v>
       </c>
       <c r="AF14" t="n">
-        <v>456.2654065162834</v>
+        <v>384.1983266352365</v>
       </c>
       <c r="AG14" t="n">
-        <v>476.3864456609058</v>
+        <v>421.7676774193365</v>
       </c>
       <c r="AH14" t="n">
-        <v>482.4148186708692</v>
+        <v>459.0779409448984</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>490.8731446139731</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>490.2377354161313</v>
       </c>
     </row>
     <row r="15">
@@ -1891,311 +1975,109 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>324.6949291955657</v>
+        <v>304.9736233034591</v>
       </c>
       <c r="C15" t="n">
-        <v>326.5331643155399</v>
+        <v>305.1228757466703</v>
       </c>
       <c r="D15" t="n">
-        <v>327.8081523505477</v>
+        <v>316.0414437448164</v>
       </c>
       <c r="E15" t="n">
-        <v>325.2161175628713</v>
+        <v>322.3819317494947</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8519456926849</v>
+        <v>327.5046151664985</v>
       </c>
       <c r="G15" t="n">
-        <v>308.9511142229229</v>
+        <v>324.0723319788623</v>
       </c>
       <c r="H15" t="n">
-        <v>293.9224526411673</v>
+        <v>304.9756361029433</v>
       </c>
       <c r="I15" t="n">
-        <v>287.7222867611546</v>
+        <v>294.7629604951355</v>
       </c>
       <c r="J15" t="n">
-        <v>284.6563480800846</v>
+        <v>288.4122321082303</v>
       </c>
       <c r="K15" t="n">
-        <v>282.8183784199914</v>
+        <v>281.0423855121935</v>
       </c>
       <c r="L15" t="n">
-        <v>288.5369347563359</v>
+        <v>280.6710328091128</v>
       </c>
       <c r="M15" t="n">
-        <v>300.0795095599987</v>
+        <v>287.6659327446366</v>
       </c>
       <c r="N15" t="n">
-        <v>314.559009453382</v>
+        <v>295.493841526867</v>
       </c>
       <c r="O15" t="n">
-        <v>329.7959876678971</v>
+        <v>302.4950820961528</v>
       </c>
       <c r="P15" t="n">
-        <v>340.1181854261422</v>
+        <v>312.6087632440202</v>
       </c>
       <c r="Q15" t="n">
-        <v>347.2734378693212</v>
+        <v>335.6725748421102</v>
       </c>
       <c r="R15" t="n">
-        <v>344.2704096905674</v>
+        <v>342.9739814131009</v>
       </c>
       <c r="S15" t="n">
-        <v>343.4127153048238</v>
+        <v>346.9980884033756</v>
       </c>
       <c r="T15" t="n">
-        <v>343.5969974477545</v>
+        <v>342.0177590420752</v>
       </c>
       <c r="U15" t="n">
-        <v>342.5982088973411</v>
+        <v>330.4747358156224</v>
       </c>
       <c r="V15" t="n">
-        <v>343.6280032645435</v>
+        <v>332.1789165799149</v>
       </c>
       <c r="W15" t="n">
-        <v>342.7289447999154</v>
+        <v>343.787543063142</v>
       </c>
       <c r="X15" t="n">
-        <v>338.7168018140741</v>
+        <v>354.8983036045744</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.5202705295667</v>
+        <v>363.2194526814958</v>
       </c>
       <c r="Z15" t="n">
-        <v>329.2756140312918</v>
+        <v>352.1798160375154</v>
       </c>
       <c r="AA15" t="n">
-        <v>321.3479398623402</v>
+        <v>335.5244851100874</v>
       </c>
       <c r="AB15" t="n">
-        <v>315.1798996153947</v>
+        <v>318.0030860437888</v>
       </c>
       <c r="AC15" t="n">
-        <v>327.6531105311342</v>
+        <v>318.9983927842645</v>
       </c>
       <c r="AD15" t="n">
-        <v>357.6217656670214</v>
+        <v>326.1627149260364</v>
       </c>
       <c r="AE15" t="n">
-        <v>394.1903680979123</v>
+        <v>335.376112532491</v>
       </c>
       <c r="AF15" t="n">
-        <v>430.1231584865289</v>
+        <v>357.3547784494548</v>
       </c>
       <c r="AG15" t="n">
-        <v>460.0553680587131</v>
+        <v>395.3188516865681</v>
       </c>
       <c r="AH15" t="n">
-        <v>475.8474283046969</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>312.975803461813</v>
-      </c>
-      <c r="C16" t="n">
-        <v>316.9452339783289</v>
-      </c>
-      <c r="D16" t="n">
-        <v>321.9252107992049</v>
-      </c>
-      <c r="E16" t="n">
-        <v>323.5957113213724</v>
-      </c>
-      <c r="F16" t="n">
-        <v>322.1752931107616</v>
-      </c>
-      <c r="G16" t="n">
-        <v>313.2513293632325</v>
-      </c>
-      <c r="H16" t="n">
-        <v>297.4426368373221</v>
-      </c>
-      <c r="I16" t="n">
-        <v>290.4596179515606</v>
-      </c>
-      <c r="J16" t="n">
-        <v>285.729187014635</v>
-      </c>
-      <c r="K16" t="n">
-        <v>280.4320738894307</v>
-      </c>
-      <c r="L16" t="n">
-        <v>282.5641567852591</v>
-      </c>
-      <c r="M16" t="n">
-        <v>290.5938691196718</v>
-      </c>
-      <c r="N16" t="n">
-        <v>302.8056548701234</v>
-      </c>
-      <c r="O16" t="n">
-        <v>318.7284204692298</v>
-      </c>
-      <c r="P16" t="n">
-        <v>331.4820643893624</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>341.6525504141581</v>
-      </c>
-      <c r="R16" t="n">
-        <v>338.1278557934176</v>
-      </c>
-      <c r="S16" t="n">
-        <v>335.9708279892163</v>
-      </c>
-      <c r="T16" t="n">
-        <v>336.5570008524322</v>
-      </c>
-      <c r="U16" t="n">
-        <v>338.6548956280517</v>
-      </c>
-      <c r="V16" t="n">
-        <v>345.3562075342197</v>
-      </c>
-      <c r="W16" t="n">
-        <v>350.2019379598984</v>
-      </c>
-      <c r="X16" t="n">
-        <v>349.7364550690571</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>349.786992632302</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>342.2390917730897</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>330.8123022780393</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>313.8994372024794</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>312.9531731335475</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>331.9167329763786</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>362.1290105038652</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>398.5364347553554</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>434.3909708597033</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>456.4401324712154</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>301.317195249034</v>
-      </c>
-      <c r="C17" t="n">
-        <v>305.475180319254</v>
-      </c>
-      <c r="D17" t="n">
-        <v>312.1704710199056</v>
-      </c>
-      <c r="E17" t="n">
-        <v>317.7603586748775</v>
-      </c>
-      <c r="F17" t="n">
-        <v>319.5972643492007</v>
-      </c>
-      <c r="G17" t="n">
-        <v>313.1374575740344</v>
-      </c>
-      <c r="H17" t="n">
-        <v>298.3508251834451</v>
-      </c>
-      <c r="I17" t="n">
-        <v>292.147596148078</v>
-      </c>
-      <c r="J17" t="n">
-        <v>290.2784635979306</v>
-      </c>
-      <c r="K17" t="n">
-        <v>285.3231722089219</v>
-      </c>
-      <c r="L17" t="n">
-        <v>285.2538693745068</v>
-      </c>
-      <c r="M17" t="n">
-        <v>284.8530315247286</v>
-      </c>
-      <c r="N17" t="n">
-        <v>287.8449640211258</v>
-      </c>
-      <c r="O17" t="n">
-        <v>302.2204586795311</v>
-      </c>
-      <c r="P17" t="n">
-        <v>320.7593911015916</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>339.6870676757095</v>
-      </c>
-      <c r="R17" t="n">
-        <v>339.9508356636677</v>
-      </c>
-      <c r="S17" t="n">
-        <v>335.1603205545075</v>
-      </c>
-      <c r="T17" t="n">
-        <v>334.9924417632609</v>
-      </c>
-      <c r="U17" t="n">
-        <v>339.7065343049516</v>
-      </c>
-      <c r="V17" t="n">
-        <v>349.9760387799652</v>
-      </c>
-      <c r="W17" t="n">
-        <v>357.4510260593682</v>
-      </c>
-      <c r="X17" t="n">
-        <v>353.6837481721792</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>350.6736197897719</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>348.0368586627053</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>347.3468582601075</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>327.8067867487836</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>313.2118971193506</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>315.8185951292119</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>331.6473335855037</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>365.8625122047351</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>408.4411906139393</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>434.6270343630557</v>
+        <v>436.2269150281302</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>474.1463026772168</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>479.3754918023462</v>
       </c>
     </row>
   </sheetData>

--- a/ysrs2 ssa/matrixes/new_X_matrix.xlsx
+++ b/ysrs2 ssa/matrixes/new_X_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,115 +539,127 @@
       <c r="AJ1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>308.9373089532946</v>
+        <v>286.7547939129186</v>
       </c>
       <c r="C2" t="n">
-        <v>307.990104137063</v>
+        <v>293.6198967273306</v>
       </c>
       <c r="D2" t="n">
-        <v>329.3654808426085</v>
+        <v>304.4754013023976</v>
       </c>
       <c r="E2" t="n">
-        <v>340.0414401920561</v>
+        <v>303.389637880022</v>
       </c>
       <c r="F2" t="n">
-        <v>347.5832685646877</v>
+        <v>330.82969022276</v>
       </c>
       <c r="G2" t="n">
-        <v>358.4974535846313</v>
+        <v>344.1654761219484</v>
       </c>
       <c r="H2" t="n">
-        <v>354.4012566058461</v>
+        <v>345.7241662235353</v>
       </c>
       <c r="I2" t="n">
-        <v>343.9982559035159</v>
+        <v>357.7521357033484</v>
       </c>
       <c r="J2" t="n">
-        <v>337.0029511855749</v>
+        <v>355.8122172566755</v>
       </c>
       <c r="K2" t="n">
-        <v>325.9454458283287</v>
+        <v>342.0852722122304</v>
       </c>
       <c r="L2" t="n">
-        <v>333.3099666982316</v>
+        <v>334.7345798744602</v>
       </c>
       <c r="M2" t="n">
-        <v>344.9021214092501</v>
+        <v>327.4166006939826</v>
       </c>
       <c r="N2" t="n">
-        <v>357.6890088018329</v>
+        <v>335.2412658707336</v>
       </c>
       <c r="O2" t="n">
-        <v>340.7393140320108</v>
+        <v>344.1710142100351</v>
       </c>
       <c r="P2" t="n">
-        <v>311.5166764781491</v>
+        <v>353.5490476809276</v>
       </c>
       <c r="Q2" t="n">
-        <v>306.0958213210263</v>
+        <v>338.9004679195962</v>
       </c>
       <c r="R2" t="n">
-        <v>327.1852588579329</v>
+        <v>308.7137039944345</v>
       </c>
       <c r="S2" t="n">
-        <v>359.4665785205709</v>
+        <v>309.1227462199813</v>
       </c>
       <c r="T2" t="n">
-        <v>396.8375442767432</v>
+        <v>335.546170603994</v>
       </c>
       <c r="U2" t="n">
-        <v>414.8202037219762</v>
+        <v>362.8596708717328</v>
       </c>
       <c r="V2" t="n">
-        <v>442.0225184155033</v>
+        <v>393.1020275854459</v>
       </c>
       <c r="W2" t="n">
-        <v>473.9557067161969</v>
+        <v>405.4088185410266</v>
       </c>
       <c r="X2" t="n">
-        <v>491.5809330582161</v>
+        <v>432.7157135991922</v>
       </c>
       <c r="Y2" t="n">
-        <v>494.3846230406719</v>
+        <v>474.7403896982148</v>
       </c>
       <c r="Z2" t="n">
-        <v>454.5121370337887</v>
+        <v>497.4324432725653</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.1606262251804</v>
+        <v>498.3471506367496</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.5532062339192</v>
+        <v>450.0755228502007</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.4492198176883</v>
+        <v>388.2999570370553</v>
       </c>
       <c r="AD2" t="n">
-        <v>373.6721032847345</v>
+        <v>366.8681798913256</v>
       </c>
       <c r="AE2" t="n">
-        <v>360.5446941435538</v>
+        <v>384.1549564835809</v>
       </c>
       <c r="AF2" t="n">
-        <v>347.3469473460994</v>
+        <v>373.83003264451</v>
       </c>
       <c r="AG2" t="n">
-        <v>333.8276790274308</v>
+        <v>351.8448484242404</v>
       </c>
       <c r="AH2" t="n">
-        <v>357.1112083110822</v>
+        <v>336.3387780749069</v>
       </c>
       <c r="AI2" t="n">
-        <v>405.6340195799611</v>
+        <v>332.895052622814</v>
       </c>
       <c r="AJ2" t="n">
-        <v>443.5270674462545</v>
+        <v>366.2272825305061</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>416.8299311675685</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>447.3533719079047</v>
       </c>
     </row>
     <row r="3">
@@ -655,109 +667,115 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>295.9716475622212</v>
+        <v>278.4914714644189</v>
       </c>
       <c r="C3" t="n">
-        <v>297.3839335451282</v>
+        <v>285.6044794598147</v>
       </c>
       <c r="D3" t="n">
-        <v>315.6055140493833</v>
+        <v>295.9117029240492</v>
       </c>
       <c r="E3" t="n">
-        <v>327.0807641557006</v>
+        <v>297.4605813463462</v>
       </c>
       <c r="F3" t="n">
-        <v>337.3959107255148</v>
+        <v>315.1470266278205</v>
       </c>
       <c r="G3" t="n">
-        <v>350.5013939016339</v>
+        <v>327.3177493114357</v>
       </c>
       <c r="H3" t="n">
-        <v>352.4163491265649</v>
+        <v>337.2018034503383</v>
       </c>
       <c r="I3" t="n">
-        <v>348.333236426023</v>
+        <v>349.3529670708438</v>
       </c>
       <c r="J3" t="n">
-        <v>344.2678625613656</v>
+        <v>352.8036254407596</v>
       </c>
       <c r="K3" t="n">
-        <v>334.5421694018727</v>
+        <v>348.9755018532406</v>
       </c>
       <c r="L3" t="n">
-        <v>337.2059549384368</v>
+        <v>343.2435961041121</v>
       </c>
       <c r="M3" t="n">
-        <v>343.2716387324044</v>
+        <v>334.1585193677158</v>
       </c>
       <c r="N3" t="n">
-        <v>352.1163634364593</v>
+        <v>336.5359252843671</v>
       </c>
       <c r="O3" t="n">
-        <v>340.553301187787</v>
+        <v>342.5235234273862</v>
       </c>
       <c r="P3" t="n">
-        <v>318.8907456227732</v>
+        <v>352.1766607190242</v>
       </c>
       <c r="Q3" t="n">
-        <v>310.9830690655793</v>
+        <v>342.4344255982463</v>
       </c>
       <c r="R3" t="n">
-        <v>321.1394877600294</v>
+        <v>320.7164190884341</v>
       </c>
       <c r="S3" t="n">
-        <v>341.874713708423</v>
+        <v>309.6809495716188</v>
       </c>
       <c r="T3" t="n">
-        <v>372.8381245857436</v>
+        <v>317.9703875479074</v>
       </c>
       <c r="U3" t="n">
-        <v>395.6226586966101</v>
+        <v>339.7328533276518</v>
       </c>
       <c r="V3" t="n">
-        <v>427.2357252061083</v>
+        <v>372.8058666228255</v>
       </c>
       <c r="W3" t="n">
-        <v>461.0234388739847</v>
+        <v>397.9638629742807</v>
       </c>
       <c r="X3" t="n">
-        <v>483.2594052979808</v>
+        <v>427.836872119055</v>
       </c>
       <c r="Y3" t="n">
-        <v>494.7015793095479</v>
+        <v>459.5550260885062</v>
       </c>
       <c r="Z3" t="n">
-        <v>473.0071616108299</v>
+        <v>483.1829352021329</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.0423328098022</v>
+        <v>496.0271844257558</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.2280301320848</v>
+        <v>474.9855594067697</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.741571894539</v>
+        <v>428.8898848198503</v>
       </c>
       <c r="AD3" t="n">
-        <v>378.2488749622007</v>
+        <v>394.5989705383071</v>
       </c>
       <c r="AE3" t="n">
-        <v>361.0905739859662</v>
+        <v>388.7119333015299</v>
       </c>
       <c r="AF3" t="n">
-        <v>346.4482535835493</v>
+        <v>377.9242902793206</v>
       </c>
       <c r="AG3" t="n">
-        <v>330.3899569504711</v>
+        <v>363.8065908328057</v>
       </c>
       <c r="AH3" t="n">
-        <v>340.4166688245387</v>
+        <v>348.8969567884185</v>
       </c>
       <c r="AI3" t="n">
-        <v>371.4999257298286</v>
+        <v>330.8788156853707</v>
       </c>
       <c r="AJ3" t="n">
-        <v>403.8779924352698</v>
+        <v>337.3946414444604</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>368.1933134526271</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>404.6185632308221</v>
       </c>
     </row>
     <row r="4">
@@ -765,109 +783,115 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>284.0862968461193</v>
+        <v>277.5381924467095</v>
       </c>
       <c r="C4" t="n">
-        <v>291.0867729323872</v>
+        <v>279.2105348186905</v>
       </c>
       <c r="D4" t="n">
-        <v>302.8194138772701</v>
+        <v>286.909088376291</v>
       </c>
       <c r="E4" t="n">
-        <v>313.4571166873983</v>
+        <v>293.9663358776682</v>
       </c>
       <c r="F4" t="n">
-        <v>325.7408731749537</v>
+        <v>300.9742050247228</v>
       </c>
       <c r="G4" t="n">
-        <v>338.1611802736289</v>
+        <v>311.3705276315731</v>
       </c>
       <c r="H4" t="n">
-        <v>346.0295094662173</v>
+        <v>326.9937381788236</v>
       </c>
       <c r="I4" t="n">
-        <v>351.0592122241598</v>
+        <v>337.041132850565</v>
       </c>
       <c r="J4" t="n">
-        <v>351.0448059506223</v>
+        <v>345.8746737414275</v>
       </c>
       <c r="K4" t="n">
-        <v>343.5315158125768</v>
+        <v>353.4727010728961</v>
       </c>
       <c r="L4" t="n">
-        <v>338.4534217495942</v>
+        <v>351.2442608351963</v>
       </c>
       <c r="M4" t="n">
-        <v>336.671296401239</v>
+        <v>342.4827671108783</v>
       </c>
       <c r="N4" t="n">
-        <v>340.928338559561</v>
+        <v>336.9149533859251</v>
       </c>
       <c r="O4" t="n">
-        <v>343.4089074617441</v>
+        <v>336.4701904827796</v>
       </c>
       <c r="P4" t="n">
-        <v>340.0459914083035</v>
+        <v>343.5918392251874</v>
       </c>
       <c r="Q4" t="n">
-        <v>330.4793455217849</v>
+        <v>347.0477875534036</v>
       </c>
       <c r="R4" t="n">
-        <v>319.1878411396606</v>
+        <v>344.4284091251682</v>
       </c>
       <c r="S4" t="n">
-        <v>316.8814645839928</v>
+        <v>327.1444483666883</v>
       </c>
       <c r="T4" t="n">
-        <v>334.1711914324862</v>
+        <v>310.7582485322285</v>
       </c>
       <c r="U4" t="n">
-        <v>364.4234123422393</v>
+        <v>313.1135584633899</v>
       </c>
       <c r="V4" t="n">
-        <v>401.8278638469378</v>
+        <v>336.6798941858729</v>
       </c>
       <c r="W4" t="n">
-        <v>434.0253375700316</v>
+        <v>372.5823733819926</v>
       </c>
       <c r="X4" t="n">
-        <v>458.1963245094966</v>
+        <v>406.8649983202471</v>
       </c>
       <c r="Y4" t="n">
-        <v>479.6188019369205</v>
+        <v>430.1652819140751</v>
       </c>
       <c r="Z4" t="n">
-        <v>487.381516125812</v>
+        <v>454.0591918170656</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.7099082615609</v>
+        <v>478.9800400636692</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.9039460210575</v>
+        <v>493.0433347753113</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.6920314722542</v>
+        <v>477.7186452841077</v>
       </c>
       <c r="AD4" t="n">
-        <v>378.4218012699955</v>
+        <v>437.098070193398</v>
       </c>
       <c r="AE4" t="n">
-        <v>366.4359280449842</v>
+        <v>398.4721692482469</v>
       </c>
       <c r="AF4" t="n">
-        <v>362.3989559977625</v>
+        <v>379.7054541734694</v>
       </c>
       <c r="AG4" t="n">
-        <v>352.822462484176</v>
+        <v>376.1855933588488</v>
       </c>
       <c r="AH4" t="n">
-        <v>343.0666363386065</v>
+        <v>371.9848405206915</v>
       </c>
       <c r="AI4" t="n">
-        <v>341.1796689329427</v>
+        <v>353.8201782917631</v>
       </c>
       <c r="AJ4" t="n">
-        <v>358.5343164340791</v>
+        <v>334.135708502315</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>331.0235740673009</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>358.2888673090464</v>
       </c>
     </row>
     <row r="5">
@@ -875,109 +899,115 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>278.9575038173115</v>
+        <v>289.8688562255203</v>
       </c>
       <c r="C5" t="n">
-        <v>286.2827824495624</v>
+        <v>280.2876062142389</v>
       </c>
       <c r="D5" t="n">
-        <v>291.2873149797971</v>
+        <v>279.8044907442742</v>
       </c>
       <c r="E5" t="n">
-        <v>300.7421544484209</v>
+        <v>287.1247432675958</v>
       </c>
       <c r="F5" t="n">
-        <v>314.3752417116456</v>
+        <v>290.6718829758757</v>
       </c>
       <c r="G5" t="n">
-        <v>326.1603426372016</v>
+        <v>300.6678393502044</v>
       </c>
       <c r="H5" t="n">
-        <v>337.6645723144895</v>
+        <v>315.6363599489632</v>
       </c>
       <c r="I5" t="n">
-        <v>349.467830885784</v>
+        <v>325.7662491151623</v>
       </c>
       <c r="J5" t="n">
-        <v>353.7354556634544</v>
+        <v>337.5505602113324</v>
       </c>
       <c r="K5" t="n">
-        <v>350.2177818593697</v>
+        <v>350.2797670438397</v>
       </c>
       <c r="L5" t="n">
-        <v>340.8289969119514</v>
+        <v>353.8990248086528</v>
       </c>
       <c r="M5" t="n">
-        <v>333.5646209367173</v>
+        <v>350.0586912502673</v>
       </c>
       <c r="N5" t="n">
-        <v>332.537299524588</v>
+        <v>341.2340259740901</v>
       </c>
       <c r="O5" t="n">
-        <v>343.1225917034162</v>
+        <v>334.157385176595</v>
       </c>
       <c r="P5" t="n">
-        <v>353.1835577323421</v>
+        <v>333.3609425200418</v>
       </c>
       <c r="Q5" t="n">
-        <v>347.1414890634823</v>
+        <v>343.3233280956713</v>
       </c>
       <c r="R5" t="n">
-        <v>325.0781396866875</v>
+        <v>354.3858598487643</v>
       </c>
       <c r="S5" t="n">
-        <v>307.6870118229592</v>
+        <v>346.6799988147749</v>
       </c>
       <c r="T5" t="n">
-        <v>309.3426227915206</v>
+        <v>325.010267152694</v>
       </c>
       <c r="U5" t="n">
-        <v>334.7073176275053</v>
+        <v>308.9488153549875</v>
       </c>
       <c r="V5" t="n">
-        <v>367.372749167327</v>
+        <v>310.244965126948</v>
       </c>
       <c r="W5" t="n">
-        <v>395.4925437730337</v>
+        <v>335.3824890641071</v>
       </c>
       <c r="X5" t="n">
-        <v>422.7752591969077</v>
+        <v>367.2231280705211</v>
       </c>
       <c r="Y5" t="n">
-        <v>454.0791828115673</v>
+        <v>393.756494022804</v>
       </c>
       <c r="Z5" t="n">
-        <v>486.3125301061946</v>
+        <v>422.0416005997191</v>
       </c>
       <c r="AA5" t="n">
-        <v>501.5560308654895</v>
+        <v>453.8234920481641</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.384672282304</v>
+        <v>487.3341374929967</v>
       </c>
       <c r="AC5" t="n">
-        <v>430.9143242939483</v>
+        <v>501.7442215416094</v>
       </c>
       <c r="AD5" t="n">
-        <v>394.396238912444</v>
+        <v>478.7940145964284</v>
       </c>
       <c r="AE5" t="n">
-        <v>381.0374543294454</v>
+        <v>431.0647140318774</v>
       </c>
       <c r="AF5" t="n">
-        <v>378.1582301155276</v>
+        <v>396.6700367028225</v>
       </c>
       <c r="AG5" t="n">
-        <v>372.4563381994143</v>
+        <v>383.3720399416</v>
       </c>
       <c r="AH5" t="n">
-        <v>352.0680726381706</v>
+        <v>379.4407890107021</v>
       </c>
       <c r="AI5" t="n">
-        <v>331.0276896371158</v>
+        <v>372.4279551405999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>334.6227453789915</v>
+        <v>352.4104460471481</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>331.388911520631</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>335.9193776565617</v>
       </c>
     </row>
     <row r="6">
@@ -985,109 +1015,115 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>283.7446200386009</v>
+        <v>307.5728039926042</v>
       </c>
       <c r="C6" t="n">
-        <v>283.3752135165741</v>
+        <v>290.3661730152278</v>
       </c>
       <c r="D6" t="n">
-        <v>283.2121716320377</v>
+        <v>280.6079454549264</v>
       </c>
       <c r="E6" t="n">
-        <v>291.1887140456386</v>
+        <v>281.2297662368921</v>
       </c>
       <c r="F6" t="n">
-        <v>304.7485181678479</v>
+        <v>284.2448061051274</v>
       </c>
       <c r="G6" t="n">
-        <v>316.8611152282623</v>
+        <v>292.7299448376061</v>
       </c>
       <c r="H6" t="n">
-        <v>328.8195701297595</v>
+        <v>303.3778804686535</v>
       </c>
       <c r="I6" t="n">
-        <v>342.4434413118552</v>
+        <v>315.172381729927</v>
       </c>
       <c r="J6" t="n">
-        <v>350.4529268320935</v>
+        <v>327.5726602960368</v>
       </c>
       <c r="K6" t="n">
-        <v>352.6735068494913</v>
+        <v>339.9896355376294</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8084679656127</v>
+        <v>349.4896782653665</v>
       </c>
       <c r="M6" t="n">
-        <v>338.2763826917539</v>
+        <v>352.8525125280134</v>
       </c>
       <c r="N6" t="n">
-        <v>332.5486517483473</v>
+        <v>347.9039031191102</v>
       </c>
       <c r="O6" t="n">
-        <v>338.9944214845092</v>
+        <v>339.4442792669921</v>
       </c>
       <c r="P6" t="n">
-        <v>349.4760632732942</v>
+        <v>331.6548865438507</v>
       </c>
       <c r="Q6" t="n">
-        <v>351.6624863053782</v>
+        <v>336.5382785792492</v>
       </c>
       <c r="R6" t="n">
-        <v>337.9867234357617</v>
+        <v>347.2110124933217</v>
       </c>
       <c r="S6" t="n">
-        <v>322.6190274096574</v>
+        <v>352.7160848003892</v>
       </c>
       <c r="T6" t="n">
-        <v>312.1673902491338</v>
+        <v>343.8365098427182</v>
       </c>
       <c r="U6" t="n">
-        <v>317.418308071233</v>
+        <v>324.6248838761291</v>
       </c>
       <c r="V6" t="n">
-        <v>332.210646286434</v>
+        <v>308.7248509753948</v>
       </c>
       <c r="W6" t="n">
-        <v>354.2979679948278</v>
+        <v>311.1201219020271</v>
       </c>
       <c r="X6" t="n">
-        <v>385.577998313459</v>
+        <v>330.7454240743052</v>
       </c>
       <c r="Y6" t="n">
-        <v>423.5227045523525</v>
+        <v>360.554262919107</v>
       </c>
       <c r="Z6" t="n">
-        <v>465.3062455987169</v>
+        <v>392.1437807233968</v>
       </c>
       <c r="AA6" t="n">
-        <v>496.6583580815779</v>
+        <v>424.8073141724366</v>
       </c>
       <c r="AB6" t="n">
-        <v>493.812650701839</v>
+        <v>460.1778777980277</v>
       </c>
       <c r="AC6" t="n">
-        <v>462.6112641456732</v>
+        <v>490.8029287632776</v>
       </c>
       <c r="AD6" t="n">
-        <v>431.7836088963861</v>
+        <v>497.5909242065848</v>
       </c>
       <c r="AE6" t="n">
-        <v>406.7629867530464</v>
+        <v>470.8422627481491</v>
       </c>
       <c r="AF6" t="n">
-        <v>388.6103883049112</v>
+        <v>431.6910001117072</v>
       </c>
       <c r="AG6" t="n">
-        <v>378.2841779654116</v>
+        <v>399.9511722973588</v>
       </c>
       <c r="AH6" t="n">
-        <v>361.4746124799745</v>
+        <v>382.5713294199883</v>
       </c>
       <c r="AI6" t="n">
-        <v>346.0497215984654</v>
+        <v>378.5274500253369</v>
       </c>
       <c r="AJ6" t="n">
-        <v>342.5523096492912</v>
+        <v>370.24964314197</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>352.0426732161089</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>338.0619601746072</v>
       </c>
     </row>
     <row r="7">
@@ -1095,109 +1131,115 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>294.056705515432</v>
+        <v>322.4509194934383</v>
       </c>
       <c r="C7" t="n">
-        <v>283.37319755277</v>
+        <v>305.3839317819612</v>
       </c>
       <c r="D7" t="n">
-        <v>278.8823215851459</v>
+        <v>289.344965033594</v>
       </c>
       <c r="E7" t="n">
-        <v>283.1315996780008</v>
+        <v>280.0565769544273</v>
       </c>
       <c r="F7" t="n">
-        <v>292.9846293339588</v>
+        <v>280.3676098588643</v>
       </c>
       <c r="G7" t="n">
-        <v>304.9168996073358</v>
+        <v>284.6911858451335</v>
       </c>
       <c r="H7" t="n">
-        <v>316.6953775327057</v>
+        <v>290.5965910390906</v>
       </c>
       <c r="I7" t="n">
-        <v>329.1802033292614</v>
+        <v>303.3396403779706</v>
       </c>
       <c r="J7" t="n">
-        <v>340.4575701017469</v>
+        <v>315.1325979980163</v>
       </c>
       <c r="K7" t="n">
-        <v>349.3383093114398</v>
+        <v>325.6863994196841</v>
       </c>
       <c r="L7" t="n">
-        <v>350.8299080824333</v>
+        <v>339.4633960775179</v>
       </c>
       <c r="M7" t="n">
-        <v>348.0217324365177</v>
+        <v>349.5654891653213</v>
       </c>
       <c r="N7" t="n">
-        <v>340.9156371736905</v>
+        <v>352.7812232909014</v>
       </c>
       <c r="O7" t="n">
-        <v>336.3760349964356</v>
+        <v>348.6978752095127</v>
       </c>
       <c r="P7" t="n">
-        <v>336.5494928078967</v>
+        <v>338.8874495408641</v>
       </c>
       <c r="Q7" t="n">
-        <v>342.9555855580585</v>
+        <v>332.5818198854418</v>
       </c>
       <c r="R7" t="n">
-        <v>346.297358908625</v>
+        <v>333.0016450949166</v>
       </c>
       <c r="S7" t="n">
-        <v>343.8422092207563</v>
+        <v>344.8856579544365</v>
       </c>
       <c r="T7" t="n">
-        <v>330.6691122656707</v>
+        <v>353.4034969562517</v>
       </c>
       <c r="U7" t="n">
-        <v>316.0175627280898</v>
+        <v>344.9959144293068</v>
       </c>
       <c r="V7" t="n">
-        <v>310.941635040146</v>
+        <v>325.2294815731336</v>
       </c>
       <c r="W7" t="n">
-        <v>324.9621003311256</v>
+        <v>307.3690322115799</v>
       </c>
       <c r="X7" t="n">
-        <v>355.1350689516494</v>
+        <v>309.2094629118472</v>
       </c>
       <c r="Y7" t="n">
-        <v>391.5252515841461</v>
+        <v>333.5897541239536</v>
       </c>
       <c r="Z7" t="n">
-        <v>428.9089869889232</v>
+        <v>363.1900639114525</v>
       </c>
       <c r="AA7" t="n">
-        <v>463.4173772560324</v>
+        <v>392.9347803619672</v>
       </c>
       <c r="AB7" t="n">
-        <v>484.6891807332332</v>
+        <v>422.3989525292439</v>
       </c>
       <c r="AC7" t="n">
-        <v>489.7656454339134</v>
+        <v>456.8759334291764</v>
       </c>
       <c r="AD7" t="n">
-        <v>476.0390639054232</v>
+        <v>490.1799402567967</v>
       </c>
       <c r="AE7" t="n">
-        <v>441.5788454098011</v>
+        <v>499.4457361033346</v>
       </c>
       <c r="AF7" t="n">
-        <v>403.9094153773602</v>
+        <v>473.2522801049337</v>
       </c>
       <c r="AG7" t="n">
-        <v>380.2535713752748</v>
+        <v>430.598376516321</v>
       </c>
       <c r="AH7" t="n">
-        <v>368.1147211701009</v>
+        <v>395.3552785672165</v>
       </c>
       <c r="AI7" t="n">
-        <v>364.87307509618</v>
+        <v>380.2159098886414</v>
       </c>
       <c r="AJ7" t="n">
-        <v>358.078081005434</v>
+        <v>378.3165512622222</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>371.5698325975297</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>350.9679116218874</v>
       </c>
     </row>
     <row r="8">
@@ -1205,109 +1247,115 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>306.4722088386717</v>
+        <v>329.7486202015047</v>
       </c>
       <c r="C8" t="n">
-        <v>289.8337224648907</v>
+        <v>321.3830468824161</v>
       </c>
       <c r="D8" t="n">
-        <v>281.9619947586571</v>
+        <v>305.9463182208008</v>
       </c>
       <c r="E8" t="n">
-        <v>280.2914318256874</v>
+        <v>289.5494330733592</v>
       </c>
       <c r="F8" t="n">
-        <v>283.0199978963397</v>
+        <v>282.7892068827363</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1132030041518</v>
+        <v>280.0166015015747</v>
       </c>
       <c r="H8" t="n">
-        <v>302.9693454964909</v>
+        <v>282.049026589715</v>
       </c>
       <c r="I8" t="n">
-        <v>313.0760611946585</v>
+        <v>292.0956256730993</v>
       </c>
       <c r="J8" t="n">
-        <v>326.0980904944309</v>
+        <v>302.2432954181017</v>
       </c>
       <c r="K8" t="n">
-        <v>339.9846656558684</v>
+        <v>311.9571937854371</v>
       </c>
       <c r="L8" t="n">
-        <v>350.8790132319005</v>
+        <v>326.6673254216497</v>
       </c>
       <c r="M8" t="n">
-        <v>355.1651170373529</v>
+        <v>340.4685234169737</v>
       </c>
       <c r="N8" t="n">
-        <v>351.3006092817942</v>
+        <v>351.8319761341879</v>
       </c>
       <c r="O8" t="n">
-        <v>338.8637278313453</v>
+        <v>356.2805478120537</v>
       </c>
       <c r="P8" t="n">
-        <v>327.8543106964849</v>
+        <v>351.8540569013981</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.5237265387155</v>
+        <v>337.7904420024416</v>
       </c>
       <c r="R8" t="n">
-        <v>346.5701169393532</v>
+        <v>326.8294652183919</v>
       </c>
       <c r="S8" t="n">
-        <v>356.1556996956185</v>
+        <v>332.5263175568065</v>
       </c>
       <c r="T8" t="n">
-        <v>348.7828384589996</v>
+        <v>348.6012737819501</v>
       </c>
       <c r="U8" t="n">
-        <v>327.0070248673549</v>
+        <v>356.5514457554903</v>
       </c>
       <c r="V8" t="n">
-        <v>310.9567945072684</v>
+        <v>348.0755522312009</v>
       </c>
       <c r="W8" t="n">
-        <v>315.9746019137623</v>
+        <v>325.6161834112828</v>
       </c>
       <c r="X8" t="n">
-        <v>336.939477805894</v>
+        <v>311.9436205192533</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.7717277020024</v>
+        <v>319.0804164975202</v>
       </c>
       <c r="Z8" t="n">
-        <v>387.9519084014009</v>
+        <v>338.2155784888654</v>
       </c>
       <c r="AA8" t="n">
-        <v>417.0494970908512</v>
+        <v>361.8782061197479</v>
       </c>
       <c r="AB8" t="n">
-        <v>456.1768753599151</v>
+        <v>385.7476463552327</v>
       </c>
       <c r="AC8" t="n">
-        <v>494.3749664260432</v>
+        <v>415.5048637605469</v>
       </c>
       <c r="AD8" t="n">
-        <v>502.2084255937651</v>
+        <v>458.6689412107957</v>
       </c>
       <c r="AE8" t="n">
-        <v>472.9116063555051</v>
+        <v>498.4742714728034</v>
       </c>
       <c r="AF8" t="n">
-        <v>429.1936277788794</v>
+        <v>502.1983147701922</v>
       </c>
       <c r="AG8" t="n">
-        <v>394.2876972328256</v>
+        <v>471.2018541313849</v>
       </c>
       <c r="AH8" t="n">
-        <v>380.9497275859934</v>
+        <v>429.1576515149906</v>
       </c>
       <c r="AI8" t="n">
-        <v>380.7073702461019</v>
+        <v>395.0550795663149</v>
       </c>
       <c r="AJ8" t="n">
-        <v>370.423842105221</v>
+        <v>383.4960717639879</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>382.0146068667667</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>367.0828722588968</v>
       </c>
     </row>
     <row r="9">
@@ -1315,109 +1363,115 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>316.6330096073826</v>
+        <v>325.8645731639427</v>
       </c>
       <c r="C9" t="n">
-        <v>303.4024118272055</v>
+        <v>329.3798717585248</v>
       </c>
       <c r="D9" t="n">
-        <v>292.6205688386193</v>
+        <v>322.081131016995</v>
       </c>
       <c r="E9" t="n">
-        <v>284.2497569853089</v>
+        <v>307.7885095454789</v>
       </c>
       <c r="F9" t="n">
-        <v>278.7560340205033</v>
+        <v>291.574099339699</v>
       </c>
       <c r="G9" t="n">
-        <v>281.2525710057915</v>
+        <v>281.1187105675288</v>
       </c>
       <c r="H9" t="n">
-        <v>290.1450962723117</v>
+        <v>280.4246420591566</v>
       </c>
       <c r="I9" t="n">
-        <v>299.0318274722025</v>
+        <v>282.8228632145727</v>
       </c>
       <c r="J9" t="n">
-        <v>311.8971926067701</v>
+        <v>290.5423352060168</v>
       </c>
       <c r="K9" t="n">
-        <v>327.2383486876603</v>
+        <v>301.7925849769387</v>
       </c>
       <c r="L9" t="n">
-        <v>342.5247203807916</v>
+        <v>313.6285313556269</v>
       </c>
       <c r="M9" t="n">
-        <v>351.947343678715</v>
+        <v>326.563207179894</v>
       </c>
       <c r="N9" t="n">
-        <v>354.5259089228836</v>
+        <v>340.3676547865205</v>
       </c>
       <c r="O9" t="n">
-        <v>346.7527253537648</v>
+        <v>352.2573743178164</v>
       </c>
       <c r="P9" t="n">
-        <v>335.8498715262103</v>
+        <v>358.4074718304049</v>
       </c>
       <c r="Q9" t="n">
-        <v>331.7614093779741</v>
+        <v>350.3954616731648</v>
       </c>
       <c r="R9" t="n">
-        <v>341.1397669547652</v>
+        <v>339.0983413640142</v>
       </c>
       <c r="S9" t="n">
-        <v>349.1643005018533</v>
+        <v>328.9432842081848</v>
       </c>
       <c r="T9" t="n">
-        <v>349.0843337654105</v>
+        <v>331.9901857089193</v>
       </c>
       <c r="U9" t="n">
-        <v>338.0757079902475</v>
+        <v>346.3679616283752</v>
       </c>
       <c r="V9" t="n">
-        <v>325.830074473937</v>
+        <v>355.3018305115872</v>
       </c>
       <c r="W9" t="n">
-        <v>322.3393681034156</v>
+        <v>349.5541726577637</v>
       </c>
       <c r="X9" t="n">
-        <v>327.5554391274015</v>
+        <v>332.4701497134816</v>
       </c>
       <c r="Y9" t="n">
-        <v>338.4613730509106</v>
+        <v>317.1081712009385</v>
       </c>
       <c r="Z9" t="n">
-        <v>355.2608137453212</v>
+        <v>319.3459137276269</v>
       </c>
       <c r="AA9" t="n">
-        <v>380.8251313622907</v>
+        <v>335.3944474050498</v>
       </c>
       <c r="AB9" t="n">
-        <v>423.2005507071886</v>
+        <v>361.0008336502819</v>
       </c>
       <c r="AC9" t="n">
-        <v>468.8598324996981</v>
+        <v>386.2721874619099</v>
       </c>
       <c r="AD9" t="n">
-        <v>492.6898621010899</v>
+        <v>416.7186252344687</v>
       </c>
       <c r="AE9" t="n">
-        <v>488.3333804791242</v>
+        <v>458.535848185578</v>
       </c>
       <c r="AF9" t="n">
-        <v>464.1915496746431</v>
+        <v>494.3438253282455</v>
       </c>
       <c r="AG9" t="n">
-        <v>432.2723596893314</v>
+        <v>500.5124082316917</v>
       </c>
       <c r="AH9" t="n">
-        <v>408.9697680773806</v>
+        <v>476.5604704423863</v>
       </c>
       <c r="AI9" t="n">
-        <v>391.4968664321606</v>
+        <v>432.9251321675551</v>
       </c>
       <c r="AJ9" t="n">
-        <v>372.8575088151668</v>
+        <v>396.8842869775496</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>381.3005379312436</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>375.4265585338085</v>
       </c>
     </row>
     <row r="10">
@@ -1425,109 +1479,115 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>322.706730355073</v>
+        <v>320.2565377857885</v>
       </c>
       <c r="C10" t="n">
-        <v>318.7815036618364</v>
+        <v>327.4288297138356</v>
       </c>
       <c r="D10" t="n">
-        <v>305.9079679669317</v>
+        <v>328.0015954646111</v>
       </c>
       <c r="E10" t="n">
-        <v>291.9063863648001</v>
+        <v>322.2273773412083</v>
       </c>
       <c r="F10" t="n">
-        <v>279.4687936209064</v>
+        <v>303.5130702506106</v>
       </c>
       <c r="G10" t="n">
-        <v>273.846682930072</v>
+        <v>289.6929260653278</v>
       </c>
       <c r="H10" t="n">
-        <v>279.8764540302708</v>
+        <v>284.3021168117197</v>
       </c>
       <c r="I10" t="n">
-        <v>288.5935383102991</v>
+        <v>278.6118351117623</v>
       </c>
       <c r="J10" t="n">
-        <v>299.9213435454961</v>
+        <v>282.801787046227</v>
       </c>
       <c r="K10" t="n">
-        <v>313.8398348458094</v>
+        <v>293.7170422767122</v>
       </c>
       <c r="L10" t="n">
-        <v>328.4953719632546</v>
+        <v>302.0182330191717</v>
       </c>
       <c r="M10" t="n">
-        <v>340.1893411701741</v>
+        <v>312.9706534257365</v>
       </c>
       <c r="N10" t="n">
-        <v>349.7096050315368</v>
+        <v>323.8812257039843</v>
       </c>
       <c r="O10" t="n">
-        <v>355.2589640722887</v>
+        <v>336.836733153275</v>
       </c>
       <c r="P10" t="n">
-        <v>353.9379505548477</v>
+        <v>349.2585645815915</v>
       </c>
       <c r="Q10" t="n">
-        <v>341.6139624452359</v>
+        <v>357.0512180752139</v>
       </c>
       <c r="R10" t="n">
-        <v>333.9133188109965</v>
+        <v>357.1013989352552</v>
       </c>
       <c r="S10" t="n">
-        <v>330.094504462343</v>
+        <v>340.6416680626318</v>
       </c>
       <c r="T10" t="n">
-        <v>335.023361236389</v>
+        <v>325.8317858651219</v>
       </c>
       <c r="U10" t="n">
-        <v>343.7509284713088</v>
+        <v>329.1792361052892</v>
       </c>
       <c r="V10" t="n">
-        <v>344.0487425087694</v>
+        <v>341.2970566383429</v>
       </c>
       <c r="W10" t="n">
-        <v>333.9411589717175</v>
+        <v>352.2402333348962</v>
       </c>
       <c r="X10" t="n">
-        <v>322.5698612078818</v>
+        <v>343.0356259774537</v>
       </c>
       <c r="Y10" t="n">
-        <v>319.4259331469389</v>
+        <v>319.6585195790952</v>
       </c>
       <c r="Z10" t="n">
-        <v>333.5686372282854</v>
+        <v>309.6324422253052</v>
       </c>
       <c r="AA10" t="n">
-        <v>359.219668599002</v>
+        <v>317.2244146899535</v>
       </c>
       <c r="AB10" t="n">
-        <v>393.7887520525102</v>
+        <v>343.6980683015113</v>
       </c>
       <c r="AC10" t="n">
-        <v>426.0930939989143</v>
+        <v>370.4179832324791</v>
       </c>
       <c r="AD10" t="n">
-        <v>458.127957193389</v>
+        <v>387.2093278429022</v>
       </c>
       <c r="AE10" t="n">
-        <v>487.2893489280369</v>
+        <v>411.0025164142286</v>
       </c>
       <c r="AF10" t="n">
-        <v>497.428712024442</v>
+        <v>456.7103331736489</v>
       </c>
       <c r="AG10" t="n">
-        <v>479.9945517303563</v>
+        <v>495.3535376318681</v>
       </c>
       <c r="AH10" t="n">
-        <v>443.9451142815</v>
+        <v>502.9397096380347</v>
       </c>
       <c r="AI10" t="n">
-        <v>399.1259242544651</v>
+        <v>476.4282096122774</v>
       </c>
       <c r="AJ10" t="n">
-        <v>369.7690755291734</v>
+        <v>429.7996915479986</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>393.153362265867</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>382.5553631469922</v>
       </c>
     </row>
     <row r="11">
@@ -1535,109 +1595,115 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>327.3034713267556</v>
+        <v>320.023184966006</v>
       </c>
       <c r="C11" t="n">
-        <v>329.2734114105677</v>
+        <v>323.1363861379484</v>
       </c>
       <c r="D11" t="n">
-        <v>318.9256227403062</v>
+        <v>327.2540448552868</v>
       </c>
       <c r="E11" t="n">
-        <v>304.9553846639257</v>
+        <v>327.9275884011382</v>
       </c>
       <c r="F11" t="n">
-        <v>291.3276861930482</v>
+        <v>318.4627392670969</v>
       </c>
       <c r="G11" t="n">
-        <v>280.4809607229403</v>
+        <v>306.74462993551</v>
       </c>
       <c r="H11" t="n">
-        <v>279.2111773144919</v>
+        <v>293.1325411174735</v>
       </c>
       <c r="I11" t="n">
-        <v>284.1818652084637</v>
+        <v>283.5487635806998</v>
       </c>
       <c r="J11" t="n">
-        <v>291.4553711852327</v>
+        <v>282.3037142427235</v>
       </c>
       <c r="K11" t="n">
-        <v>301.0259828467014</v>
+        <v>286.0255148607367</v>
       </c>
       <c r="L11" t="n">
-        <v>312.578173673224</v>
+        <v>291.3927241611161</v>
       </c>
       <c r="M11" t="n">
-        <v>324.8744400936745</v>
+        <v>301.7606099225928</v>
       </c>
       <c r="N11" t="n">
-        <v>338.0526527482825</v>
+        <v>311.0086095692357</v>
       </c>
       <c r="O11" t="n">
-        <v>352.5881557339984</v>
+        <v>321.8562498282705</v>
       </c>
       <c r="P11" t="n">
-        <v>360.6466695691473</v>
+        <v>333.9279455940471</v>
       </c>
       <c r="Q11" t="n">
-        <v>351.7250751321019</v>
+        <v>352.2189153042991</v>
       </c>
       <c r="R11" t="n">
-        <v>336.759110747361</v>
+        <v>360.078329921729</v>
       </c>
       <c r="S11" t="n">
-        <v>326.5731853904453</v>
+        <v>353.9781848117339</v>
       </c>
       <c r="T11" t="n">
-        <v>330.462202251491</v>
+        <v>338.7996298796061</v>
       </c>
       <c r="U11" t="n">
-        <v>344.8064053486031</v>
+        <v>328.9210679760938</v>
       </c>
       <c r="V11" t="n">
-        <v>350.7313521885902</v>
+        <v>331.2054429866448</v>
       </c>
       <c r="W11" t="n">
-        <v>339.3994326292164</v>
+        <v>341.8100420185838</v>
       </c>
       <c r="X11" t="n">
-        <v>321.9460792461616</v>
+        <v>342.0100830371576</v>
       </c>
       <c r="Y11" t="n">
-        <v>312.7500344481322</v>
+        <v>330.7981696891729</v>
       </c>
       <c r="Z11" t="n">
-        <v>321.7161256318373</v>
+        <v>317.9507656768381</v>
       </c>
       <c r="AA11" t="n">
-        <v>341.8116309007452</v>
+        <v>314.288752345744</v>
       </c>
       <c r="AB11" t="n">
-        <v>363.723679060407</v>
+        <v>324.6303749472441</v>
       </c>
       <c r="AC11" t="n">
-        <v>383.416949748467</v>
+        <v>346.7933802007329</v>
       </c>
       <c r="AD11" t="n">
-        <v>417.1831801740741</v>
+        <v>364.5529110633078</v>
       </c>
       <c r="AE11" t="n">
-        <v>463.5801503491243</v>
+        <v>380.6530939147333</v>
       </c>
       <c r="AF11" t="n">
-        <v>497.5285801749145</v>
+        <v>416.0760615595559</v>
       </c>
       <c r="AG11" t="n">
-        <v>501.269851280287</v>
+        <v>461.056585320664</v>
       </c>
       <c r="AH11" t="n">
-        <v>473.2517863612784</v>
+        <v>490.9714917131633</v>
       </c>
       <c r="AI11" t="n">
-        <v>427.7111747808449</v>
+        <v>498.2655006223373</v>
       </c>
       <c r="AJ11" t="n">
-        <v>396.5782603876389</v>
+        <v>472.0486622525376</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>433.2101488224113</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>407.8962632118829</v>
       </c>
     </row>
     <row r="12">
@@ -1645,109 +1711,115 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>330.1240707621149</v>
+        <v>320.0610650544104</v>
       </c>
       <c r="C12" t="n">
-        <v>331.4385876888795</v>
+        <v>318.4118982011431</v>
       </c>
       <c r="D12" t="n">
-        <v>327.887133692471</v>
+        <v>323.36141107062</v>
       </c>
       <c r="E12" t="n">
-        <v>319.1048139314548</v>
+        <v>325.4738626016014</v>
       </c>
       <c r="F12" t="n">
-        <v>309.4751891948323</v>
+        <v>330.9391729177953</v>
       </c>
       <c r="G12" t="n">
-        <v>298.056067913835</v>
+        <v>324.2023671132952</v>
       </c>
       <c r="H12" t="n">
-        <v>287.0890765851466</v>
+        <v>302.7687817621656</v>
       </c>
       <c r="I12" t="n">
-        <v>284.7919978604284</v>
+        <v>293.9034946109234</v>
       </c>
       <c r="J12" t="n">
-        <v>286.5882848204625</v>
+        <v>287.01832715185</v>
       </c>
       <c r="K12" t="n">
-        <v>290.558277883795</v>
+        <v>279.6768898287048</v>
       </c>
       <c r="L12" t="n">
-        <v>299.5102214024373</v>
+        <v>282.3539629216728</v>
       </c>
       <c r="M12" t="n">
-        <v>312.1833353481572</v>
+        <v>292.5450322947728</v>
       </c>
       <c r="N12" t="n">
-        <v>325.4468517273818</v>
+        <v>303.3616800170541</v>
       </c>
       <c r="O12" t="n">
-        <v>338.909880451701</v>
+        <v>312.9449615491756</v>
       </c>
       <c r="P12" t="n">
-        <v>349.1692098402439</v>
+        <v>322.1014472781945</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.366158028604</v>
+        <v>339.981744313028</v>
       </c>
       <c r="R12" t="n">
-        <v>347.011856228021</v>
+        <v>345.0876344130857</v>
       </c>
       <c r="S12" t="n">
-        <v>342.2253545855379</v>
+        <v>355.2096068594075</v>
       </c>
       <c r="T12" t="n">
-        <v>342.2974369708327</v>
+        <v>355.6817247330703</v>
       </c>
       <c r="U12" t="n">
-        <v>345.4587649506338</v>
+        <v>342.5417260538892</v>
       </c>
       <c r="V12" t="n">
-        <v>347.0196041398999</v>
+        <v>335.512643571609</v>
       </c>
       <c r="W12" t="n">
-        <v>339.8040341130426</v>
+        <v>334.7770976798856</v>
       </c>
       <c r="X12" t="n">
-        <v>327.6164072403081</v>
+        <v>340.8338399920623</v>
       </c>
       <c r="Y12" t="n">
-        <v>319.9887188894128</v>
+        <v>350.1875490204562</v>
       </c>
       <c r="Z12" t="n">
-        <v>318.0266045677211</v>
+        <v>340.9532765428467</v>
       </c>
       <c r="AA12" t="n">
-        <v>324.0386637262446</v>
+        <v>326.0577821412954</v>
       </c>
       <c r="AB12" t="n">
-        <v>334.261550246513</v>
+        <v>307.9322632676919</v>
       </c>
       <c r="AC12" t="n">
-        <v>353.156883990031</v>
+        <v>314.5757222335461</v>
       </c>
       <c r="AD12" t="n">
-        <v>385.2594158233658</v>
+        <v>340.80777806471</v>
       </c>
       <c r="AE12" t="n">
-        <v>426.5827336673694</v>
+        <v>365.7044000802323</v>
       </c>
       <c r="AF12" t="n">
-        <v>463.6252750824861</v>
+        <v>385.9630302268491</v>
       </c>
       <c r="AG12" t="n">
-        <v>485.2833732989021</v>
+        <v>417.6680066872058</v>
       </c>
       <c r="AH12" t="n">
-        <v>484.8345130260864</v>
+        <v>452.7863147829709</v>
       </c>
       <c r="AI12" t="n">
-        <v>469.1847987959739</v>
+        <v>488.5517705698871</v>
       </c>
       <c r="AJ12" t="n">
-        <v>447.6090294261618</v>
+        <v>498.0377819685862</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>477.9226005446704</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>442.4439720628154</v>
       </c>
     </row>
     <row r="13">
@@ -1755,329 +1827,115 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>326.8984888899165</v>
+        <v>314.4669733670622</v>
       </c>
       <c r="C13" t="n">
-        <v>326.2394644334008</v>
+        <v>310.9881001235032</v>
       </c>
       <c r="D13" t="n">
-        <v>329.5914451163073</v>
+        <v>316.7374479089284</v>
       </c>
       <c r="E13" t="n">
-        <v>327.0943076170881</v>
+        <v>318.9156148799226</v>
       </c>
       <c r="F13" t="n">
-        <v>323.0450118892049</v>
+        <v>334.8872858726764</v>
       </c>
       <c r="G13" t="n">
-        <v>313.714239964839</v>
+        <v>332.6119210459061</v>
       </c>
       <c r="H13" t="n">
-        <v>295.9329747766991</v>
+        <v>308.4517573730758</v>
       </c>
       <c r="I13" t="n">
-        <v>287.7553443223468</v>
+        <v>301.8641291514274</v>
       </c>
       <c r="J13" t="n">
-        <v>285.04346140933</v>
+        <v>292.0293245602293</v>
       </c>
       <c r="K13" t="n">
-        <v>283.9540324265348</v>
+        <v>277.4985081627775</v>
       </c>
       <c r="L13" t="n">
-        <v>290.248465305739</v>
+        <v>277.814600687317</v>
       </c>
       <c r="M13" t="n">
-        <v>302.2258501301404</v>
+        <v>286.5794416539464</v>
       </c>
       <c r="N13" t="n">
-        <v>313.9459135084965</v>
+        <v>298.4445466872743</v>
       </c>
       <c r="O13" t="n">
-        <v>323.3979908128428</v>
+        <v>307.4977797235458</v>
       </c>
       <c r="P13" t="n">
-        <v>332.8609642935355</v>
+        <v>314.9372363711568</v>
       </c>
       <c r="Q13" t="n">
-        <v>348.8378565117679</v>
+        <v>329.0113181509618</v>
       </c>
       <c r="R13" t="n">
-        <v>352.8064221125106</v>
+        <v>328.7160215606774</v>
       </c>
       <c r="S13" t="n">
-        <v>355.1119850185474</v>
+        <v>347.6088095580784</v>
       </c>
       <c r="T13" t="n">
-        <v>352.1530980472309</v>
+        <v>360.4331473168261</v>
       </c>
       <c r="U13" t="n">
-        <v>343.6626912227255</v>
+        <v>349.7871931311942</v>
       </c>
       <c r="V13" t="n">
-        <v>340.9600597367807</v>
+        <v>340.7129854742802</v>
       </c>
       <c r="W13" t="n">
-        <v>340.21128735056</v>
+        <v>333.6010479504888</v>
       </c>
       <c r="X13" t="n">
-        <v>336.983740875834</v>
+        <v>343.9683994536843</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.2701686140099</v>
+        <v>367.7038896296481</v>
       </c>
       <c r="Z13" t="n">
-        <v>323.5285950371123</v>
+        <v>363.1209003814598</v>
       </c>
       <c r="AA13" t="n">
-        <v>316.2048572528068</v>
+        <v>342.7447802586792</v>
       </c>
       <c r="AB13" t="n">
-        <v>315.9709499942749</v>
+        <v>304.7870892012355</v>
       </c>
       <c r="AC13" t="n">
-        <v>334.3618093976207</v>
+        <v>296.0898398682232</v>
       </c>
       <c r="AD13" t="n">
-        <v>360.866857780416</v>
+        <v>324.0492750958185</v>
       </c>
       <c r="AE13" t="n">
-        <v>389.3909613361258</v>
+        <v>355.2548854877397</v>
       </c>
       <c r="AF13" t="n">
-        <v>420.8661944833705</v>
+        <v>364.8420307960135</v>
       </c>
       <c r="AG13" t="n">
-        <v>453.4066902029608</v>
+        <v>383.6517499970121</v>
       </c>
       <c r="AH13" t="n">
-        <v>478.1958590431989</v>
+        <v>416.423428964736</v>
       </c>
       <c r="AI13" t="n">
-        <v>493.6128005983238</v>
+        <v>464.5958231647256</v>
       </c>
       <c r="AJ13" t="n">
-        <v>484.0950929337909</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>316.7458040142194</v>
-      </c>
-      <c r="C14" t="n">
-        <v>316.0802068794348</v>
-      </c>
-      <c r="D14" t="n">
-        <v>324.1944291950969</v>
-      </c>
-      <c r="E14" t="n">
-        <v>326.8682559124853</v>
-      </c>
-      <c r="F14" t="n">
-        <v>327.9764906929151</v>
-      </c>
-      <c r="G14" t="n">
-        <v>321.5638956227758</v>
-      </c>
-      <c r="H14" t="n">
-        <v>301.6418247221755</v>
-      </c>
-      <c r="I14" t="n">
-        <v>291.2850483438879</v>
-      </c>
-      <c r="J14" t="n">
-        <v>285.9888079241025</v>
-      </c>
-      <c r="K14" t="n">
-        <v>281.0543506977639</v>
-      </c>
-      <c r="L14" t="n">
-        <v>283.834879967696</v>
-      </c>
-      <c r="M14" t="n">
-        <v>293.4951846581932</v>
-      </c>
-      <c r="N14" t="n">
-        <v>303.2215459111138</v>
-      </c>
-      <c r="O14" t="n">
-        <v>310.9049538930657</v>
-      </c>
-      <c r="P14" t="n">
-        <v>320.6749501493804</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>342.3527774770324</v>
-      </c>
-      <c r="R14" t="n">
-        <v>349.865118856348</v>
-      </c>
-      <c r="S14" t="n">
-        <v>354.2968814563448</v>
-      </c>
-      <c r="T14" t="n">
-        <v>349.6977118546889</v>
-      </c>
-      <c r="U14" t="n">
-        <v>337.3778311830068</v>
-      </c>
-      <c r="V14" t="n">
-        <v>335.6744974356312</v>
-      </c>
-      <c r="W14" t="n">
-        <v>341.6122749641706</v>
-      </c>
-      <c r="X14" t="n">
-        <v>346.4475166137924</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>349.5272962345367</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>336.7969731579586</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>322.6248727172151</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>312.5485380015875</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>323.1140289028735</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>340.0639531105716</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>357.7016796225244</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>384.1983266352365</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>421.7676774193365</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>459.0779409448984</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>490.8731446139731</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>490.2377354161313</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>304.9736233034591</v>
-      </c>
-      <c r="C15" t="n">
-        <v>305.1228757466703</v>
-      </c>
-      <c r="D15" t="n">
-        <v>316.0414437448164</v>
-      </c>
-      <c r="E15" t="n">
-        <v>322.3819317494947</v>
-      </c>
-      <c r="F15" t="n">
-        <v>327.5046151664985</v>
-      </c>
-      <c r="G15" t="n">
-        <v>324.0723319788623</v>
-      </c>
-      <c r="H15" t="n">
-        <v>304.9756361029433</v>
-      </c>
-      <c r="I15" t="n">
-        <v>294.7629604951355</v>
-      </c>
-      <c r="J15" t="n">
-        <v>288.4122321082303</v>
-      </c>
-      <c r="K15" t="n">
-        <v>281.0423855121935</v>
-      </c>
-      <c r="L15" t="n">
-        <v>280.6710328091128</v>
-      </c>
-      <c r="M15" t="n">
-        <v>287.6659327446366</v>
-      </c>
-      <c r="N15" t="n">
-        <v>295.493841526867</v>
-      </c>
-      <c r="O15" t="n">
-        <v>302.4950820961528</v>
-      </c>
-      <c r="P15" t="n">
-        <v>312.6087632440202</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>335.6725748421102</v>
-      </c>
-      <c r="R15" t="n">
-        <v>342.9739814131009</v>
-      </c>
-      <c r="S15" t="n">
-        <v>346.9980884033756</v>
-      </c>
-      <c r="T15" t="n">
-        <v>342.0177590420752</v>
-      </c>
-      <c r="U15" t="n">
-        <v>330.4747358156224</v>
-      </c>
-      <c r="V15" t="n">
-        <v>332.1789165799149</v>
-      </c>
-      <c r="W15" t="n">
-        <v>343.787543063142</v>
-      </c>
-      <c r="X15" t="n">
-        <v>354.8983036045744</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>363.2194526814958</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>352.1798160375154</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>335.5244851100874</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>318.0030860437888</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>318.9983927842645</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>326.1627149260364</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>335.376112532491</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>357.3547784494548</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>395.3188516865681</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>436.2269150281302</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>474.1463026772168</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>479.3754918023462</v>
+        <v>497.3429388511988</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>495.2793440448935</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>459.7827456862475</v>
       </c>
     </row>
   </sheetData>
